--- a/Assets/_Project/Data/ElementsSheet.xlsx
+++ b/Assets/_Project/Data/ElementsSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="254">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Electronegativity</t>
   </si>
   <si>
-    <t>AtomicRadius</t>
+    <t>Radioactive</t>
   </si>
   <si>
     <t>Group</t>
@@ -37,6 +37,9 @@
     <t>Hidrogênio</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Ametais</t>
   </si>
   <si>
@@ -80,16 +83,713 @@
   </si>
   <si>
     <t>Carbono</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Nitrogênio</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Oxigénio</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Flúor</t>
+  </si>
+  <si>
+    <t>Halogenios</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Néonio</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Sódio</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Magnésio</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Alumínio</t>
+  </si>
+  <si>
+    <t>Outros_Metais</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Silício</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Fósforo</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Enxofre</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>Cloro</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>Árgonio</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Potássio</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Cálcio</t>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>Escândio</t>
+  </si>
+  <si>
+    <t>Metais_de_Transicao</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Titânio</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Vanádio</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Cromo</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Manganês</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Ferro</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Cobalto</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Níquel</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Cobre</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Zinco</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>Gálio</t>
+  </si>
+  <si>
+    <t>Ge</t>
+  </si>
+  <si>
+    <t>Germânio</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>Arsênio</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>Selênio</t>
+  </si>
+  <si>
+    <t>Br</t>
+  </si>
+  <si>
+    <t>Bromo</t>
+  </si>
+  <si>
+    <t>Kr</t>
+  </si>
+  <si>
+    <t>Criptônio</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <t>Rubídio</t>
+  </si>
+  <si>
+    <t>Sr</t>
+  </si>
+  <si>
+    <t>Estrôncio</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Ítrio</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>Zircônio</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Nióbio</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Molibdênio</t>
+  </si>
+  <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>Tecnércio</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>Rutênio</t>
+  </si>
+  <si>
+    <t>Rh</t>
+  </si>
+  <si>
+    <t>Ródio</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Paládio</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Prata</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>Cádmio</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Índio</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>Estanho</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>Antimônio</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Telúrio</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Iodo</t>
+  </si>
+  <si>
+    <t>Xe</t>
+  </si>
+  <si>
+    <t>Xenônio</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Césio</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Bário</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>Lantânio</t>
+  </si>
+  <si>
+    <t>Lantanideos</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>Cério</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Praseodímio</t>
+  </si>
+  <si>
+    <t>Nd</t>
+  </si>
+  <si>
+    <t>Neodímio</t>
+  </si>
+  <si>
+    <t>Pm</t>
+  </si>
+  <si>
+    <t>Promécio</t>
+  </si>
+  <si>
+    <t>Sm</t>
+  </si>
+  <si>
+    <t>Samário</t>
+  </si>
+  <si>
+    <t>Eu</t>
+  </si>
+  <si>
+    <t>Európio</t>
+  </si>
+  <si>
+    <t>Gd</t>
+  </si>
+  <si>
+    <t>Gadolíneo</t>
+  </si>
+  <si>
+    <t>Tb</t>
+  </si>
+  <si>
+    <t>Térbio</t>
+  </si>
+  <si>
+    <t>Dy</t>
+  </si>
+  <si>
+    <t>Disprósio</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>Hólmio</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Érbio</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>Túlio</t>
+  </si>
+  <si>
+    <t>Yb</t>
+  </si>
+  <si>
+    <t>Itérbio</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>Lutécio</t>
+  </si>
+  <si>
+    <t>Hf</t>
+  </si>
+  <si>
+    <t>Háfnio</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Tântalo</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Tungstênio</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Rênio</t>
+  </si>
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>Ósmio</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>Irídio</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Platina</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Ouro</t>
+  </si>
+  <si>
+    <t>Hg</t>
+  </si>
+  <si>
+    <t>Mercúrio</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Tálio</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Chumbo</t>
+  </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>Bismuto</t>
+  </si>
+  <si>
+    <t>Po</t>
+  </si>
+  <si>
+    <t>Polônio</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Ástato</t>
+  </si>
+  <si>
+    <t>Rn</t>
+  </si>
+  <si>
+    <t>Radônio</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Frâncio</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>Rádio</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>Actínio</t>
+  </si>
+  <si>
+    <t>Actinidios</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>Tório</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Protactínio</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Urânio</t>
+  </si>
+  <si>
+    <t>Np</t>
+  </si>
+  <si>
+    <t>Netúnio</t>
+  </si>
+  <si>
+    <t>Pu</t>
+  </si>
+  <si>
+    <t>Plutônico</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Américio</t>
+  </si>
+  <si>
+    <t>Cm</t>
+  </si>
+  <si>
+    <t>Cúrio</t>
+  </si>
+  <si>
+    <t>Bk</t>
+  </si>
+  <si>
+    <t>Berquélio</t>
+  </si>
+  <si>
+    <t>Cf</t>
+  </si>
+  <si>
+    <t>Califórnio</t>
+  </si>
+  <si>
+    <t>Es</t>
+  </si>
+  <si>
+    <t>Einsténio</t>
+  </si>
+  <si>
+    <t>Fm</t>
+  </si>
+  <si>
+    <t>Férmio</t>
+  </si>
+  <si>
+    <t>Md</t>
+  </si>
+  <si>
+    <t>Mendelévio</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nobélio</t>
+  </si>
+  <si>
+    <t>Lr</t>
+  </si>
+  <si>
+    <t>Laurêncio</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>Rutherfórdio</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>Dúbnio</t>
+  </si>
+  <si>
+    <t>Sg</t>
+  </si>
+  <si>
+    <t>Seabórgio</t>
+  </si>
+  <si>
+    <t>Bh</t>
+  </si>
+  <si>
+    <t>Bóhrio</t>
+  </si>
+  <si>
+    <t>Hs</t>
+  </si>
+  <si>
+    <t>Hássio</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>Meitnério</t>
+  </si>
+  <si>
+    <t>Ds</t>
+  </si>
+  <si>
+    <t>Darmstádio</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>Roentgênio</t>
+  </si>
+  <si>
+    <t>Cn</t>
+  </si>
+  <si>
+    <t>Copernício</t>
+  </si>
+  <si>
+    <t>Nh</t>
+  </si>
+  <si>
+    <t>Nihônio</t>
+  </si>
+  <si>
+    <t>Fl</t>
+  </si>
+  <si>
+    <t>Fleróvio</t>
+  </si>
+  <si>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>Moscóvio</t>
+  </si>
+  <si>
+    <t>Lv</t>
+  </si>
+  <si>
+    <t>Livermódio</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
+  <si>
+    <t>Tenssino</t>
+  </si>
+  <si>
+    <t>Og</t>
+  </si>
+  <si>
+    <t>Oganessônio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -99,12 +799,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,31 +832,116 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -358,15 +1158,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.25"/>
+    <col customWidth="1" min="1" max="1" width="14.5"/>
     <col customWidth="1" min="2" max="2" width="20.25"/>
-    <col customWidth="1" min="3" max="3" width="18.38"/>
+    <col customWidth="1" min="3" max="3" width="17.5"/>
     <col customWidth="1" min="4" max="4" width="21.0"/>
-    <col customWidth="1" min="5" max="5" width="19.88"/>
-    <col customWidth="1" min="6" max="6" width="23.0"/>
+    <col customWidth="1" min="5" max="6" width="23.0"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="26.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -382,3128 +1181,5291 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" ht="23.25" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>1.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>2.1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+    </row>
+    <row r="3" ht="23.25" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" ht="23.25" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" ht="23.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" ht="23.25" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" ht="23.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" ht="23.25" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" ht="23.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" ht="23.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" ht="23.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" ht="23.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" ht="23.25" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="23.25" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" ht="23.25" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" ht="23.25" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" ht="23.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" ht="23.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" ht="23.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" ht="23.25" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="7">
+        <v>19.0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" ht="23.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" ht="23.25" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" ht="23.25" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" ht="23.25" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="7">
+        <v>23.0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" ht="23.25" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" ht="23.25" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" ht="23.25" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" ht="23.25" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" ht="23.25" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="7">
+        <v>28.0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" ht="23.25" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" ht="23.25" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" ht="23.25" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="7">
+        <v>31.0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" ht="23.25" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" ht="23.25" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" ht="23.25" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="7">
+        <v>34.0</v>
+      </c>
+      <c r="D35" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" ht="23.25" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="7">
+        <v>35.0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" ht="23.25" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="7">
+        <v>36.0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" ht="23.25" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="7">
+        <v>37.0</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" ht="23.25" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="7">
+        <v>38.0</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" ht="23.25" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="7">
+        <v>39.0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" ht="23.25" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" ht="23.25" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="7">
+        <v>41.0</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" ht="23.25" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="7">
+        <v>42.0</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" ht="23.25" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="7">
+        <v>43.0</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" ht="23.25" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="7">
+        <v>44.0</v>
+      </c>
+      <c r="D45" s="8">
+        <v>2.2</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" ht="23.25" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="D46" s="8">
+        <v>2.3</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" ht="23.25" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2.2</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" ht="23.25" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" ht="23.25" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" ht="23.25" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" ht="23.25" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" ht="23.25" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" ht="23.25" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="7">
+        <v>52.0</v>
+      </c>
+      <c r="D53" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" ht="23.25" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="7">
         <v>53.0</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="D54" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" ht="23.25" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="7">
+        <v>54.0</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" ht="23.25" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="7">
+        <v>55.0</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" ht="23.25" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="7">
+        <v>56.0</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" ht="23.25" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="7">
+        <v>57.0</v>
+      </c>
+      <c r="D58" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" ht="23.25" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="7">
+        <v>58.0</v>
+      </c>
+      <c r="D59" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" ht="23.25" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="7">
+        <v>59.0</v>
+      </c>
+      <c r="D60" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" ht="23.25" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="D61" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" ht="23.25" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="7">
+        <v>61.0</v>
+      </c>
+      <c r="D62" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" ht="23.25" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="7">
+        <v>62.0</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" ht="23.25" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="7">
+        <v>63.0</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" ht="23.25" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="7">
+        <v>64.0</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" ht="23.25" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="7">
+        <v>65.0</v>
+      </c>
+      <c r="D66" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" ht="23.25" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="7">
+        <v>66.0</v>
+      </c>
+      <c r="D67" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" ht="23.25" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="7">
+        <v>67.0</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" ht="23.25" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="7">
+        <v>68.0</v>
+      </c>
+      <c r="D69" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" ht="23.25" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="7">
+        <v>69.0</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" ht="23.25" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="7">
+        <v>70.0</v>
+      </c>
+      <c r="D71" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" ht="23.25" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="7">
+        <v>71.0</v>
+      </c>
+      <c r="D72" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" ht="23.25" customHeight="1">
+      <c r="A73" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="7">
+        <v>72.0</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" ht="23.25" customHeight="1">
+      <c r="A74" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="7">
+        <v>73.0</v>
+      </c>
+      <c r="D74" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" ht="23.25" customHeight="1">
+      <c r="A75" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="7">
+        <v>74.0</v>
+      </c>
+      <c r="D75" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" ht="23.25" customHeight="1">
+      <c r="A76" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" ht="23.25" customHeight="1">
+      <c r="A77" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="7">
+        <v>76.0</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2.2</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" ht="23.25" customHeight="1">
+      <c r="A78" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="D78" s="8">
+        <v>2.2</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" ht="23.25" customHeight="1">
+      <c r="A79" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="7">
+        <v>78.0</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2.3</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" ht="23.25" customHeight="1">
+      <c r="A80" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="7">
+        <v>79.0</v>
+      </c>
+      <c r="D80" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" ht="23.25" customHeight="1">
+      <c r="A81" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="D81" s="8">
         <v>2.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E81" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" ht="23.25" customHeight="1">
+      <c r="A82" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="7">
+        <v>81.0</v>
+      </c>
+      <c r="D82" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" ht="23.25" customHeight="1">
+      <c r="A83" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="7">
+        <v>82.0</v>
+      </c>
+      <c r="D83" s="8">
+        <v>2.3</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" ht="23.25" customHeight="1">
+      <c r="A84" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="7">
+        <v>83.0</v>
+      </c>
+      <c r="D84" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="14"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" ht="23.25" customHeight="1">
+      <c r="A85" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="7">
+        <v>84.0</v>
+      </c>
+      <c r="D85" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" ht="23.25" customHeight="1">
+      <c r="A86" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="7">
+        <v>85.0</v>
+      </c>
+      <c r="D86" s="8">
+        <v>2.2</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" ht="23.25" customHeight="1">
+      <c r="A87" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="7">
+        <v>86.0</v>
+      </c>
+      <c r="D87" s="8">
         <v>0.0</v>
       </c>
-      <c r="E3" s="4">
-        <v>31.0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="E87" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>152.0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="G87" s="14"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" ht="23.25" customHeight="1">
+      <c r="A88" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="7">
+        <v>87.0</v>
+      </c>
+      <c r="D88" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="G88" s="14"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" ht="23.25" customHeight="1">
+      <c r="A89" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="7">
+        <v>88.0</v>
+      </c>
+      <c r="D89" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" ht="23.25" customHeight="1">
+      <c r="A90" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="7">
+        <v>89.0</v>
+      </c>
+      <c r="D90" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" ht="23.25" customHeight="1">
+      <c r="A91" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="D91" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G91" s="14"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" ht="23.25" customHeight="1">
+      <c r="A92" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="7">
+        <v>91.0</v>
+      </c>
+      <c r="D92" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G92" s="14"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" ht="23.25" customHeight="1">
+      <c r="A93" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="7">
+        <v>92.0</v>
+      </c>
+      <c r="D93" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G93" s="14"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" ht="23.25" customHeight="1">
+      <c r="A94" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="7">
+        <v>93.0</v>
+      </c>
+      <c r="D94" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G94" s="14"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" ht="23.25" customHeight="1">
+      <c r="A95" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" s="7">
+        <v>94.0</v>
+      </c>
+      <c r="D95" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G95" s="14"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" ht="23.25" customHeight="1">
+      <c r="A96" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="7">
+        <v>95.0</v>
+      </c>
+      <c r="D96" s="16">
+        <v>1.1</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G96" s="14"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" ht="23.25" customHeight="1">
+      <c r="A97" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="7">
+        <v>96.0</v>
+      </c>
+      <c r="D97" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" ht="23.25" customHeight="1">
+      <c r="A98" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="7">
+        <v>97.0</v>
+      </c>
+      <c r="D98" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" ht="23.25" customHeight="1">
+      <c r="A99" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="7">
+        <v>98.0</v>
+      </c>
+      <c r="D99" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" ht="23.25" customHeight="1">
+      <c r="A100" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="7">
+        <v>99.0</v>
+      </c>
+      <c r="D100" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" ht="23.25" customHeight="1">
+      <c r="A101" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="D101" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" ht="23.25" customHeight="1">
+      <c r="A102" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="7">
+        <v>101.0</v>
+      </c>
+      <c r="D102" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" ht="23.25" customHeight="1">
+      <c r="A103" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="D103" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" ht="23.25" customHeight="1">
+      <c r="A104" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="7">
+        <v>103.0</v>
+      </c>
+      <c r="D104" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G104" s="14"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" ht="23.25" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" s="14"/>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" ht="23.25" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="D106" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G106" s="14"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" ht="23.25" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="7">
+        <v>106.0</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G107" s="14"/>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" ht="23.25" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="7">
+        <v>107.0</v>
+      </c>
+      <c r="D108" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G108" s="14"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" ht="23.25" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="7">
+        <v>108.0</v>
+      </c>
+      <c r="D109" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" ht="23.25" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="7">
+        <v>109.0</v>
+      </c>
+      <c r="D110" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G110" s="14"/>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" ht="23.25" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="D111" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G111" s="14"/>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" ht="23.25" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="7">
+        <v>111.0</v>
+      </c>
+      <c r="D112" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G112" s="14"/>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" ht="23.25" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="7">
         <v>112.0</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>87.0</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>67.0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56">
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57">
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58">
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59">
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60">
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61">
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62">
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63">
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64">
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65">
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66">
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67">
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68">
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69">
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70">
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71">
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72">
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73">
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74">
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75">
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76">
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77">
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78">
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79">
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80">
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81">
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82">
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83">
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84">
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85">
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86">
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87">
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88">
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89">
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90">
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91">
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92">
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93">
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94">
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95">
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96">
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97">
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98">
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99">
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100">
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101">
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102">
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103">
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104">
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105">
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106">
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107">
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108">
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109">
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110">
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111">
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112">
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113">
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114">
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115">
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116">
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117">
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118">
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119">
-      <c r="D119" s="6"/>
+      <c r="D113" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" ht="23.25" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="7">
+        <v>113.0</v>
+      </c>
+      <c r="D114" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G114" s="14"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" ht="23.25" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" s="7">
+        <v>114.0</v>
+      </c>
+      <c r="D115" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G115" s="14"/>
+      <c r="H115" s="15"/>
+    </row>
+    <row r="116" ht="23.25" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="D116" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="14"/>
+      <c r="H116" s="15"/>
+    </row>
+    <row r="117" ht="23.25" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" s="7">
+        <v>116.0</v>
+      </c>
+      <c r="D117" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" s="14"/>
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" ht="23.25" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="7">
+        <v>117.0</v>
+      </c>
+      <c r="D118" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" s="14"/>
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" ht="23.25" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="7">
+        <v>118.0</v>
+      </c>
+      <c r="D119" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="14"/>
+      <c r="H119" s="15"/>
     </row>
     <row r="120">
-      <c r="D120" s="6"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="21"/>
     </row>
     <row r="121">
-      <c r="D121" s="6"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="21"/>
     </row>
     <row r="122">
-      <c r="D122" s="6"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="21"/>
     </row>
     <row r="123">
-      <c r="D123" s="6"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="21"/>
     </row>
     <row r="124">
-      <c r="D124" s="6"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="21"/>
     </row>
     <row r="125">
-      <c r="D125" s="6"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="21"/>
     </row>
     <row r="126">
-      <c r="D126" s="6"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="21"/>
     </row>
     <row r="127">
-      <c r="D127" s="6"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="21"/>
     </row>
     <row r="128">
-      <c r="D128" s="6"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="21"/>
     </row>
     <row r="129">
-      <c r="D129" s="6"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="21"/>
     </row>
     <row r="130">
-      <c r="D130" s="6"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="21"/>
     </row>
     <row r="131">
-      <c r="D131" s="6"/>
+      <c r="D131" s="20"/>
     </row>
     <row r="132">
-      <c r="D132" s="6"/>
+      <c r="D132" s="20"/>
     </row>
     <row r="133">
-      <c r="D133" s="6"/>
+      <c r="D133" s="20"/>
     </row>
     <row r="134">
-      <c r="D134" s="6"/>
+      <c r="D134" s="20"/>
     </row>
     <row r="135">
-      <c r="D135" s="6"/>
+      <c r="D135" s="20"/>
     </row>
     <row r="136">
-      <c r="D136" s="6"/>
+      <c r="D136" s="20"/>
     </row>
     <row r="137">
-      <c r="D137" s="6"/>
+      <c r="D137" s="20"/>
     </row>
     <row r="138">
-      <c r="D138" s="6"/>
+      <c r="D138" s="20"/>
     </row>
     <row r="139">
-      <c r="D139" s="6"/>
+      <c r="D139" s="20"/>
     </row>
     <row r="140">
-      <c r="D140" s="6"/>
+      <c r="D140" s="20"/>
     </row>
     <row r="141">
-      <c r="D141" s="6"/>
+      <c r="D141" s="20"/>
     </row>
     <row r="142">
-      <c r="D142" s="6"/>
+      <c r="D142" s="20"/>
     </row>
     <row r="143">
-      <c r="D143" s="6"/>
+      <c r="D143" s="20"/>
     </row>
     <row r="144">
-      <c r="D144" s="6"/>
+      <c r="D144" s="20"/>
     </row>
     <row r="145">
-      <c r="D145" s="6"/>
+      <c r="D145" s="20"/>
     </row>
     <row r="146">
-      <c r="D146" s="6"/>
+      <c r="D146" s="20"/>
     </row>
     <row r="147">
-      <c r="D147" s="6"/>
+      <c r="D147" s="20"/>
     </row>
     <row r="148">
-      <c r="D148" s="6"/>
+      <c r="D148" s="20"/>
     </row>
     <row r="149">
-      <c r="D149" s="6"/>
+      <c r="D149" s="20"/>
     </row>
     <row r="150">
-      <c r="D150" s="6"/>
+      <c r="D150" s="20"/>
     </row>
     <row r="151">
-      <c r="D151" s="6"/>
+      <c r="D151" s="20"/>
     </row>
     <row r="152">
-      <c r="D152" s="6"/>
+      <c r="D152" s="20"/>
     </row>
     <row r="153">
-      <c r="D153" s="6"/>
+      <c r="D153" s="20"/>
     </row>
     <row r="154">
-      <c r="D154" s="6"/>
+      <c r="D154" s="20"/>
     </row>
     <row r="155">
-      <c r="D155" s="6"/>
+      <c r="D155" s="20"/>
     </row>
     <row r="156">
-      <c r="D156" s="6"/>
+      <c r="D156" s="20"/>
     </row>
     <row r="157">
-      <c r="D157" s="6"/>
+      <c r="D157" s="20"/>
     </row>
     <row r="158">
-      <c r="D158" s="6"/>
+      <c r="D158" s="20"/>
     </row>
     <row r="159">
-      <c r="D159" s="6"/>
+      <c r="D159" s="20"/>
     </row>
     <row r="160">
-      <c r="D160" s="6"/>
+      <c r="D160" s="20"/>
     </row>
     <row r="161">
-      <c r="D161" s="6"/>
+      <c r="D161" s="20"/>
     </row>
     <row r="162">
-      <c r="D162" s="6"/>
+      <c r="D162" s="20"/>
     </row>
     <row r="163">
-      <c r="D163" s="6"/>
+      <c r="D163" s="20"/>
     </row>
     <row r="164">
-      <c r="D164" s="6"/>
+      <c r="D164" s="20"/>
     </row>
     <row r="165">
-      <c r="D165" s="6"/>
+      <c r="D165" s="20"/>
     </row>
     <row r="166">
-      <c r="D166" s="6"/>
+      <c r="D166" s="20"/>
     </row>
     <row r="167">
-      <c r="D167" s="6"/>
+      <c r="D167" s="20"/>
     </row>
     <row r="168">
-      <c r="D168" s="6"/>
+      <c r="D168" s="20"/>
     </row>
     <row r="169">
-      <c r="D169" s="6"/>
+      <c r="D169" s="20"/>
     </row>
     <row r="170">
-      <c r="D170" s="6"/>
+      <c r="D170" s="20"/>
     </row>
     <row r="171">
-      <c r="D171" s="6"/>
+      <c r="D171" s="20"/>
     </row>
     <row r="172">
-      <c r="D172" s="6"/>
+      <c r="D172" s="20"/>
     </row>
     <row r="173">
-      <c r="D173" s="6"/>
+      <c r="D173" s="20"/>
     </row>
     <row r="174">
-      <c r="D174" s="6"/>
+      <c r="D174" s="20"/>
     </row>
     <row r="175">
-      <c r="D175" s="6"/>
+      <c r="D175" s="20"/>
     </row>
     <row r="176">
-      <c r="D176" s="6"/>
+      <c r="D176" s="20"/>
     </row>
     <row r="177">
-      <c r="D177" s="6"/>
+      <c r="D177" s="20"/>
     </row>
     <row r="178">
-      <c r="D178" s="6"/>
+      <c r="D178" s="20"/>
     </row>
     <row r="179">
-      <c r="D179" s="6"/>
+      <c r="D179" s="20"/>
     </row>
     <row r="180">
-      <c r="D180" s="6"/>
+      <c r="D180" s="20"/>
     </row>
     <row r="181">
-      <c r="D181" s="6"/>
+      <c r="D181" s="20"/>
     </row>
     <row r="182">
-      <c r="D182" s="6"/>
+      <c r="D182" s="20"/>
     </row>
     <row r="183">
-      <c r="D183" s="6"/>
+      <c r="D183" s="20"/>
     </row>
     <row r="184">
-      <c r="D184" s="6"/>
+      <c r="D184" s="20"/>
     </row>
     <row r="185">
-      <c r="D185" s="6"/>
+      <c r="D185" s="20"/>
     </row>
     <row r="186">
-      <c r="D186" s="6"/>
+      <c r="D186" s="20"/>
     </row>
     <row r="187">
-      <c r="D187" s="6"/>
+      <c r="D187" s="20"/>
     </row>
     <row r="188">
-      <c r="D188" s="6"/>
+      <c r="D188" s="20"/>
     </row>
     <row r="189">
-      <c r="D189" s="6"/>
+      <c r="D189" s="20"/>
     </row>
     <row r="190">
-      <c r="D190" s="6"/>
+      <c r="D190" s="20"/>
     </row>
     <row r="191">
-      <c r="D191" s="6"/>
+      <c r="D191" s="20"/>
     </row>
     <row r="192">
-      <c r="D192" s="6"/>
+      <c r="D192" s="20"/>
     </row>
     <row r="193">
-      <c r="D193" s="6"/>
+      <c r="D193" s="20"/>
     </row>
     <row r="194">
-      <c r="D194" s="6"/>
+      <c r="D194" s="20"/>
     </row>
     <row r="195">
-      <c r="D195" s="6"/>
+      <c r="D195" s="20"/>
     </row>
     <row r="196">
-      <c r="D196" s="6"/>
+      <c r="D196" s="20"/>
     </row>
     <row r="197">
-      <c r="D197" s="6"/>
+      <c r="D197" s="20"/>
     </row>
     <row r="198">
-      <c r="D198" s="6"/>
+      <c r="D198" s="20"/>
     </row>
     <row r="199">
-      <c r="D199" s="6"/>
+      <c r="D199" s="20"/>
     </row>
     <row r="200">
-      <c r="D200" s="6"/>
+      <c r="D200" s="20"/>
     </row>
     <row r="201">
-      <c r="D201" s="6"/>
+      <c r="D201" s="20"/>
     </row>
     <row r="202">
-      <c r="D202" s="6"/>
+      <c r="D202" s="20"/>
     </row>
     <row r="203">
-      <c r="D203" s="6"/>
+      <c r="D203" s="20"/>
     </row>
     <row r="204">
-      <c r="D204" s="6"/>
+      <c r="D204" s="20"/>
     </row>
     <row r="205">
-      <c r="D205" s="6"/>
+      <c r="D205" s="20"/>
     </row>
     <row r="206">
-      <c r="D206" s="6"/>
+      <c r="D206" s="20"/>
     </row>
     <row r="207">
-      <c r="D207" s="6"/>
+      <c r="D207" s="20"/>
     </row>
     <row r="208">
-      <c r="D208" s="6"/>
+      <c r="D208" s="20"/>
     </row>
     <row r="209">
-      <c r="D209" s="6"/>
+      <c r="D209" s="20"/>
     </row>
     <row r="210">
-      <c r="D210" s="6"/>
+      <c r="D210" s="20"/>
     </row>
     <row r="211">
-      <c r="D211" s="6"/>
+      <c r="D211" s="20"/>
     </row>
     <row r="212">
-      <c r="D212" s="6"/>
+      <c r="D212" s="20"/>
     </row>
     <row r="213">
-      <c r="D213" s="6"/>
+      <c r="D213" s="20"/>
     </row>
     <row r="214">
-      <c r="D214" s="6"/>
+      <c r="D214" s="20"/>
     </row>
     <row r="215">
-      <c r="D215" s="6"/>
+      <c r="D215" s="20"/>
     </row>
     <row r="216">
-      <c r="D216" s="6"/>
+      <c r="D216" s="20"/>
     </row>
     <row r="217">
-      <c r="D217" s="6"/>
+      <c r="D217" s="20"/>
     </row>
     <row r="218">
-      <c r="D218" s="6"/>
+      <c r="D218" s="20"/>
     </row>
     <row r="219">
-      <c r="D219" s="6"/>
+      <c r="D219" s="20"/>
     </row>
     <row r="220">
-      <c r="D220" s="6"/>
+      <c r="D220" s="20"/>
     </row>
     <row r="221">
-      <c r="D221" s="6"/>
+      <c r="D221" s="20"/>
     </row>
     <row r="222">
-      <c r="D222" s="6"/>
+      <c r="D222" s="20"/>
     </row>
     <row r="223">
-      <c r="D223" s="6"/>
+      <c r="D223" s="20"/>
     </row>
     <row r="224">
-      <c r="D224" s="6"/>
+      <c r="D224" s="20"/>
     </row>
     <row r="225">
-      <c r="D225" s="6"/>
+      <c r="D225" s="20"/>
     </row>
     <row r="226">
-      <c r="D226" s="6"/>
+      <c r="D226" s="20"/>
     </row>
     <row r="227">
-      <c r="D227" s="6"/>
+      <c r="D227" s="20"/>
     </row>
     <row r="228">
-      <c r="D228" s="6"/>
+      <c r="D228" s="20"/>
     </row>
     <row r="229">
-      <c r="D229" s="6"/>
+      <c r="D229" s="20"/>
     </row>
     <row r="230">
-      <c r="D230" s="6"/>
+      <c r="D230" s="20"/>
     </row>
     <row r="231">
-      <c r="D231" s="6"/>
+      <c r="D231" s="20"/>
     </row>
     <row r="232">
-      <c r="D232" s="6"/>
+      <c r="D232" s="20"/>
     </row>
     <row r="233">
-      <c r="D233" s="6"/>
+      <c r="D233" s="20"/>
     </row>
     <row r="234">
-      <c r="D234" s="6"/>
+      <c r="D234" s="20"/>
     </row>
     <row r="235">
-      <c r="D235" s="6"/>
+      <c r="D235" s="20"/>
     </row>
     <row r="236">
-      <c r="D236" s="6"/>
+      <c r="D236" s="20"/>
     </row>
     <row r="237">
-      <c r="D237" s="6"/>
+      <c r="D237" s="20"/>
     </row>
     <row r="238">
-      <c r="D238" s="6"/>
+      <c r="D238" s="20"/>
     </row>
     <row r="239">
-      <c r="D239" s="6"/>
+      <c r="D239" s="20"/>
     </row>
     <row r="240">
-      <c r="D240" s="6"/>
+      <c r="D240" s="20"/>
     </row>
     <row r="241">
-      <c r="D241" s="6"/>
+      <c r="D241" s="20"/>
     </row>
     <row r="242">
-      <c r="D242" s="6"/>
+      <c r="D242" s="20"/>
     </row>
     <row r="243">
-      <c r="D243" s="6"/>
+      <c r="D243" s="20"/>
     </row>
     <row r="244">
-      <c r="D244" s="6"/>
+      <c r="D244" s="20"/>
     </row>
     <row r="245">
-      <c r="D245" s="6"/>
+      <c r="D245" s="20"/>
     </row>
     <row r="246">
-      <c r="D246" s="6"/>
+      <c r="D246" s="20"/>
     </row>
     <row r="247">
-      <c r="D247" s="6"/>
+      <c r="D247" s="20"/>
     </row>
     <row r="248">
-      <c r="D248" s="6"/>
+      <c r="D248" s="20"/>
     </row>
     <row r="249">
-      <c r="D249" s="6"/>
+      <c r="D249" s="20"/>
     </row>
     <row r="250">
-      <c r="D250" s="6"/>
+      <c r="D250" s="20"/>
     </row>
     <row r="251">
-      <c r="D251" s="6"/>
+      <c r="D251" s="20"/>
     </row>
     <row r="252">
-      <c r="D252" s="6"/>
+      <c r="D252" s="20"/>
     </row>
     <row r="253">
-      <c r="D253" s="6"/>
+      <c r="D253" s="20"/>
     </row>
     <row r="254">
-      <c r="D254" s="6"/>
+      <c r="D254" s="20"/>
     </row>
     <row r="255">
-      <c r="D255" s="6"/>
+      <c r="D255" s="20"/>
     </row>
     <row r="256">
-      <c r="D256" s="6"/>
+      <c r="D256" s="20"/>
     </row>
     <row r="257">
-      <c r="D257" s="6"/>
+      <c r="D257" s="20"/>
     </row>
     <row r="258">
-      <c r="D258" s="6"/>
+      <c r="D258" s="20"/>
     </row>
     <row r="259">
-      <c r="D259" s="6"/>
+      <c r="D259" s="20"/>
     </row>
     <row r="260">
-      <c r="D260" s="6"/>
+      <c r="D260" s="20"/>
     </row>
     <row r="261">
-      <c r="D261" s="6"/>
+      <c r="D261" s="20"/>
     </row>
     <row r="262">
-      <c r="D262" s="6"/>
+      <c r="D262" s="20"/>
     </row>
     <row r="263">
-      <c r="D263" s="6"/>
+      <c r="D263" s="20"/>
     </row>
     <row r="264">
-      <c r="D264" s="6"/>
+      <c r="D264" s="20"/>
     </row>
     <row r="265">
-      <c r="D265" s="6"/>
+      <c r="D265" s="20"/>
     </row>
     <row r="266">
-      <c r="D266" s="6"/>
+      <c r="D266" s="20"/>
     </row>
     <row r="267">
-      <c r="D267" s="6"/>
+      <c r="D267" s="20"/>
     </row>
     <row r="268">
-      <c r="D268" s="6"/>
+      <c r="D268" s="20"/>
     </row>
     <row r="269">
-      <c r="D269" s="6"/>
+      <c r="D269" s="20"/>
     </row>
     <row r="270">
-      <c r="D270" s="6"/>
+      <c r="D270" s="20"/>
     </row>
     <row r="271">
-      <c r="D271" s="6"/>
+      <c r="D271" s="20"/>
     </row>
     <row r="272">
-      <c r="D272" s="6"/>
+      <c r="D272" s="20"/>
     </row>
     <row r="273">
-      <c r="D273" s="6"/>
+      <c r="D273" s="20"/>
     </row>
     <row r="274">
-      <c r="D274" s="6"/>
+      <c r="D274" s="20"/>
     </row>
     <row r="275">
-      <c r="D275" s="6"/>
+      <c r="D275" s="20"/>
     </row>
     <row r="276">
-      <c r="D276" s="6"/>
+      <c r="D276" s="20"/>
     </row>
     <row r="277">
-      <c r="D277" s="6"/>
+      <c r="D277" s="20"/>
     </row>
     <row r="278">
-      <c r="D278" s="6"/>
+      <c r="D278" s="20"/>
     </row>
     <row r="279">
-      <c r="D279" s="6"/>
+      <c r="D279" s="20"/>
     </row>
     <row r="280">
-      <c r="D280" s="6"/>
+      <c r="D280" s="20"/>
     </row>
     <row r="281">
-      <c r="D281" s="6"/>
+      <c r="D281" s="20"/>
     </row>
     <row r="282">
-      <c r="D282" s="6"/>
+      <c r="D282" s="20"/>
     </row>
     <row r="283">
-      <c r="D283" s="6"/>
+      <c r="D283" s="20"/>
     </row>
     <row r="284">
-      <c r="D284" s="6"/>
+      <c r="D284" s="20"/>
     </row>
     <row r="285">
-      <c r="D285" s="6"/>
+      <c r="D285" s="20"/>
     </row>
     <row r="286">
-      <c r="D286" s="6"/>
+      <c r="D286" s="20"/>
     </row>
     <row r="287">
-      <c r="D287" s="6"/>
+      <c r="D287" s="20"/>
     </row>
     <row r="288">
-      <c r="D288" s="6"/>
+      <c r="D288" s="20"/>
     </row>
     <row r="289">
-      <c r="D289" s="6"/>
+      <c r="D289" s="20"/>
     </row>
     <row r="290">
-      <c r="D290" s="6"/>
+      <c r="D290" s="20"/>
     </row>
     <row r="291">
-      <c r="D291" s="6"/>
+      <c r="D291" s="20"/>
     </row>
     <row r="292">
-      <c r="D292" s="6"/>
+      <c r="D292" s="20"/>
     </row>
     <row r="293">
-      <c r="D293" s="6"/>
+      <c r="D293" s="20"/>
     </row>
     <row r="294">
-      <c r="D294" s="6"/>
+      <c r="D294" s="20"/>
     </row>
     <row r="295">
-      <c r="D295" s="6"/>
+      <c r="D295" s="20"/>
     </row>
     <row r="296">
-      <c r="D296" s="6"/>
+      <c r="D296" s="20"/>
     </row>
     <row r="297">
-      <c r="D297" s="6"/>
+      <c r="D297" s="20"/>
     </row>
     <row r="298">
-      <c r="D298" s="6"/>
+      <c r="D298" s="20"/>
     </row>
     <row r="299">
-      <c r="D299" s="6"/>
+      <c r="D299" s="20"/>
     </row>
     <row r="300">
-      <c r="D300" s="6"/>
+      <c r="D300" s="20"/>
     </row>
     <row r="301">
-      <c r="D301" s="6"/>
+      <c r="D301" s="20"/>
     </row>
     <row r="302">
-      <c r="D302" s="6"/>
+      <c r="D302" s="20"/>
     </row>
     <row r="303">
-      <c r="D303" s="6"/>
+      <c r="D303" s="20"/>
     </row>
     <row r="304">
-      <c r="D304" s="6"/>
+      <c r="D304" s="20"/>
     </row>
     <row r="305">
-      <c r="D305" s="6"/>
+      <c r="D305" s="20"/>
     </row>
     <row r="306">
-      <c r="D306" s="6"/>
+      <c r="D306" s="20"/>
     </row>
     <row r="307">
-      <c r="D307" s="6"/>
+      <c r="D307" s="20"/>
     </row>
     <row r="308">
-      <c r="D308" s="6"/>
+      <c r="D308" s="20"/>
     </row>
     <row r="309">
-      <c r="D309" s="6"/>
+      <c r="D309" s="20"/>
     </row>
     <row r="310">
-      <c r="D310" s="6"/>
+      <c r="D310" s="20"/>
     </row>
     <row r="311">
-      <c r="D311" s="6"/>
+      <c r="D311" s="20"/>
     </row>
     <row r="312">
-      <c r="D312" s="6"/>
+      <c r="D312" s="20"/>
     </row>
     <row r="313">
-      <c r="D313" s="6"/>
+      <c r="D313" s="20"/>
     </row>
     <row r="314">
-      <c r="D314" s="6"/>
+      <c r="D314" s="20"/>
     </row>
     <row r="315">
-      <c r="D315" s="6"/>
+      <c r="D315" s="20"/>
     </row>
     <row r="316">
-      <c r="D316" s="6"/>
+      <c r="D316" s="20"/>
     </row>
     <row r="317">
-      <c r="D317" s="6"/>
+      <c r="D317" s="20"/>
     </row>
     <row r="318">
-      <c r="D318" s="6"/>
+      <c r="D318" s="20"/>
     </row>
     <row r="319">
-      <c r="D319" s="6"/>
+      <c r="D319" s="20"/>
     </row>
     <row r="320">
-      <c r="D320" s="6"/>
+      <c r="D320" s="20"/>
     </row>
     <row r="321">
-      <c r="D321" s="6"/>
+      <c r="D321" s="20"/>
     </row>
     <row r="322">
-      <c r="D322" s="6"/>
+      <c r="D322" s="20"/>
     </row>
     <row r="323">
-      <c r="D323" s="6"/>
+      <c r="D323" s="20"/>
     </row>
     <row r="324">
-      <c r="D324" s="6"/>
+      <c r="D324" s="20"/>
     </row>
     <row r="325">
-      <c r="D325" s="6"/>
+      <c r="D325" s="20"/>
     </row>
     <row r="326">
-      <c r="D326" s="6"/>
+      <c r="D326" s="20"/>
     </row>
     <row r="327">
-      <c r="D327" s="6"/>
+      <c r="D327" s="20"/>
     </row>
     <row r="328">
-      <c r="D328" s="6"/>
+      <c r="D328" s="20"/>
     </row>
     <row r="329">
-      <c r="D329" s="6"/>
+      <c r="D329" s="20"/>
     </row>
     <row r="330">
-      <c r="D330" s="6"/>
+      <c r="D330" s="20"/>
     </row>
     <row r="331">
-      <c r="D331" s="6"/>
+      <c r="D331" s="20"/>
     </row>
     <row r="332">
-      <c r="D332" s="6"/>
+      <c r="D332" s="20"/>
     </row>
     <row r="333">
-      <c r="D333" s="6"/>
+      <c r="D333" s="20"/>
     </row>
     <row r="334">
-      <c r="D334" s="6"/>
+      <c r="D334" s="20"/>
     </row>
     <row r="335">
-      <c r="D335" s="6"/>
+      <c r="D335" s="20"/>
     </row>
     <row r="336">
-      <c r="D336" s="6"/>
+      <c r="D336" s="20"/>
     </row>
     <row r="337">
-      <c r="D337" s="6"/>
+      <c r="D337" s="20"/>
     </row>
     <row r="338">
-      <c r="D338" s="6"/>
+      <c r="D338" s="20"/>
     </row>
     <row r="339">
-      <c r="D339" s="6"/>
+      <c r="D339" s="20"/>
     </row>
     <row r="340">
-      <c r="D340" s="6"/>
+      <c r="D340" s="20"/>
     </row>
     <row r="341">
-      <c r="D341" s="6"/>
+      <c r="D341" s="20"/>
     </row>
     <row r="342">
-      <c r="D342" s="6"/>
+      <c r="D342" s="20"/>
     </row>
     <row r="343">
-      <c r="D343" s="6"/>
+      <c r="D343" s="20"/>
     </row>
     <row r="344">
-      <c r="D344" s="6"/>
+      <c r="D344" s="20"/>
     </row>
     <row r="345">
-      <c r="D345" s="6"/>
+      <c r="D345" s="20"/>
     </row>
     <row r="346">
-      <c r="D346" s="6"/>
+      <c r="D346" s="20"/>
     </row>
     <row r="347">
-      <c r="D347" s="6"/>
+      <c r="D347" s="20"/>
     </row>
     <row r="348">
-      <c r="D348" s="6"/>
+      <c r="D348" s="20"/>
     </row>
     <row r="349">
-      <c r="D349" s="6"/>
+      <c r="D349" s="20"/>
     </row>
     <row r="350">
-      <c r="D350" s="6"/>
+      <c r="D350" s="20"/>
     </row>
     <row r="351">
-      <c r="D351" s="6"/>
+      <c r="D351" s="20"/>
     </row>
     <row r="352">
-      <c r="D352" s="6"/>
+      <c r="D352" s="20"/>
     </row>
     <row r="353">
-      <c r="D353" s="6"/>
+      <c r="D353" s="20"/>
     </row>
     <row r="354">
-      <c r="D354" s="6"/>
+      <c r="D354" s="20"/>
     </row>
     <row r="355">
-      <c r="D355" s="6"/>
+      <c r="D355" s="20"/>
     </row>
     <row r="356">
-      <c r="D356" s="6"/>
+      <c r="D356" s="20"/>
     </row>
     <row r="357">
-      <c r="D357" s="6"/>
+      <c r="D357" s="20"/>
     </row>
     <row r="358">
-      <c r="D358" s="6"/>
+      <c r="D358" s="20"/>
     </row>
     <row r="359">
-      <c r="D359" s="6"/>
+      <c r="D359" s="20"/>
     </row>
     <row r="360">
-      <c r="D360" s="6"/>
+      <c r="D360" s="20"/>
     </row>
     <row r="361">
-      <c r="D361" s="6"/>
+      <c r="D361" s="20"/>
     </row>
     <row r="362">
-      <c r="D362" s="6"/>
+      <c r="D362" s="20"/>
     </row>
     <row r="363">
-      <c r="D363" s="6"/>
+      <c r="D363" s="20"/>
     </row>
     <row r="364">
-      <c r="D364" s="6"/>
+      <c r="D364" s="20"/>
     </row>
     <row r="365">
-      <c r="D365" s="6"/>
+      <c r="D365" s="20"/>
     </row>
     <row r="366">
-      <c r="D366" s="6"/>
+      <c r="D366" s="20"/>
     </row>
     <row r="367">
-      <c r="D367" s="6"/>
+      <c r="D367" s="20"/>
     </row>
     <row r="368">
-      <c r="D368" s="6"/>
+      <c r="D368" s="20"/>
     </row>
     <row r="369">
-      <c r="D369" s="6"/>
+      <c r="D369" s="20"/>
     </row>
     <row r="370">
-      <c r="D370" s="6"/>
+      <c r="D370" s="20"/>
     </row>
     <row r="371">
-      <c r="D371" s="6"/>
+      <c r="D371" s="20"/>
     </row>
     <row r="372">
-      <c r="D372" s="6"/>
+      <c r="D372" s="20"/>
     </row>
     <row r="373">
-      <c r="D373" s="6"/>
+      <c r="D373" s="20"/>
     </row>
     <row r="374">
-      <c r="D374" s="6"/>
+      <c r="D374" s="20"/>
     </row>
     <row r="375">
-      <c r="D375" s="6"/>
+      <c r="D375" s="20"/>
     </row>
     <row r="376">
-      <c r="D376" s="6"/>
+      <c r="D376" s="20"/>
     </row>
     <row r="377">
-      <c r="D377" s="6"/>
+      <c r="D377" s="20"/>
     </row>
     <row r="378">
-      <c r="D378" s="6"/>
+      <c r="D378" s="20"/>
     </row>
     <row r="379">
-      <c r="D379" s="6"/>
+      <c r="D379" s="20"/>
     </row>
     <row r="380">
-      <c r="D380" s="6"/>
+      <c r="D380" s="20"/>
     </row>
     <row r="381">
-      <c r="D381" s="6"/>
+      <c r="D381" s="20"/>
     </row>
     <row r="382">
-      <c r="D382" s="6"/>
+      <c r="D382" s="20"/>
     </row>
     <row r="383">
-      <c r="D383" s="6"/>
+      <c r="D383" s="20"/>
     </row>
     <row r="384">
-      <c r="D384" s="6"/>
+      <c r="D384" s="20"/>
     </row>
     <row r="385">
-      <c r="D385" s="6"/>
+      <c r="D385" s="20"/>
     </row>
     <row r="386">
-      <c r="D386" s="6"/>
+      <c r="D386" s="20"/>
     </row>
     <row r="387">
-      <c r="D387" s="6"/>
+      <c r="D387" s="20"/>
     </row>
     <row r="388">
-      <c r="D388" s="6"/>
+      <c r="D388" s="20"/>
     </row>
     <row r="389">
-      <c r="D389" s="6"/>
+      <c r="D389" s="20"/>
     </row>
     <row r="390">
-      <c r="D390" s="6"/>
+      <c r="D390" s="20"/>
     </row>
     <row r="391">
-      <c r="D391" s="6"/>
+      <c r="D391" s="20"/>
     </row>
     <row r="392">
-      <c r="D392" s="6"/>
+      <c r="D392" s="20"/>
     </row>
     <row r="393">
-      <c r="D393" s="6"/>
+      <c r="D393" s="20"/>
     </row>
     <row r="394">
-      <c r="D394" s="6"/>
+      <c r="D394" s="20"/>
     </row>
     <row r="395">
-      <c r="D395" s="6"/>
+      <c r="D395" s="20"/>
     </row>
     <row r="396">
-      <c r="D396" s="6"/>
+      <c r="D396" s="20"/>
     </row>
     <row r="397">
-      <c r="D397" s="6"/>
+      <c r="D397" s="20"/>
     </row>
     <row r="398">
-      <c r="D398" s="6"/>
+      <c r="D398" s="20"/>
     </row>
     <row r="399">
-      <c r="D399" s="6"/>
+      <c r="D399" s="20"/>
     </row>
     <row r="400">
-      <c r="D400" s="6"/>
+      <c r="D400" s="20"/>
     </row>
     <row r="401">
-      <c r="D401" s="6"/>
+      <c r="D401" s="20"/>
     </row>
     <row r="402">
-      <c r="D402" s="6"/>
+      <c r="D402" s="20"/>
     </row>
     <row r="403">
-      <c r="D403" s="6"/>
+      <c r="D403" s="20"/>
     </row>
     <row r="404">
-      <c r="D404" s="6"/>
+      <c r="D404" s="20"/>
     </row>
     <row r="405">
-      <c r="D405" s="6"/>
+      <c r="D405" s="20"/>
     </row>
     <row r="406">
-      <c r="D406" s="6"/>
+      <c r="D406" s="20"/>
     </row>
     <row r="407">
-      <c r="D407" s="6"/>
+      <c r="D407" s="20"/>
     </row>
     <row r="408">
-      <c r="D408" s="6"/>
+      <c r="D408" s="20"/>
     </row>
     <row r="409">
-      <c r="D409" s="6"/>
+      <c r="D409" s="20"/>
     </row>
     <row r="410">
-      <c r="D410" s="6"/>
+      <c r="D410" s="20"/>
     </row>
     <row r="411">
-      <c r="D411" s="6"/>
+      <c r="D411" s="20"/>
     </row>
     <row r="412">
-      <c r="D412" s="6"/>
+      <c r="D412" s="20"/>
     </row>
     <row r="413">
-      <c r="D413" s="6"/>
+      <c r="D413" s="20"/>
     </row>
     <row r="414">
-      <c r="D414" s="6"/>
+      <c r="D414" s="20"/>
     </row>
     <row r="415">
-      <c r="D415" s="6"/>
+      <c r="D415" s="20"/>
     </row>
     <row r="416">
-      <c r="D416" s="6"/>
+      <c r="D416" s="20"/>
     </row>
     <row r="417">
-      <c r="D417" s="6"/>
+      <c r="D417" s="20"/>
     </row>
     <row r="418">
-      <c r="D418" s="6"/>
+      <c r="D418" s="20"/>
     </row>
     <row r="419">
-      <c r="D419" s="6"/>
+      <c r="D419" s="20"/>
     </row>
     <row r="420">
-      <c r="D420" s="6"/>
+      <c r="D420" s="20"/>
     </row>
     <row r="421">
-      <c r="D421" s="6"/>
+      <c r="D421" s="20"/>
     </row>
     <row r="422">
-      <c r="D422" s="6"/>
+      <c r="D422" s="20"/>
     </row>
     <row r="423">
-      <c r="D423" s="6"/>
+      <c r="D423" s="20"/>
     </row>
     <row r="424">
-      <c r="D424" s="6"/>
+      <c r="D424" s="20"/>
     </row>
     <row r="425">
-      <c r="D425" s="6"/>
+      <c r="D425" s="20"/>
     </row>
     <row r="426">
-      <c r="D426" s="6"/>
+      <c r="D426" s="20"/>
     </row>
     <row r="427">
-      <c r="D427" s="6"/>
+      <c r="D427" s="20"/>
     </row>
     <row r="428">
-      <c r="D428" s="6"/>
+      <c r="D428" s="20"/>
     </row>
     <row r="429">
-      <c r="D429" s="6"/>
+      <c r="D429" s="20"/>
     </row>
     <row r="430">
-      <c r="D430" s="6"/>
+      <c r="D430" s="20"/>
     </row>
     <row r="431">
-      <c r="D431" s="6"/>
+      <c r="D431" s="20"/>
     </row>
     <row r="432">
-      <c r="D432" s="6"/>
+      <c r="D432" s="20"/>
     </row>
     <row r="433">
-      <c r="D433" s="6"/>
+      <c r="D433" s="20"/>
     </row>
     <row r="434">
-      <c r="D434" s="6"/>
+      <c r="D434" s="20"/>
     </row>
     <row r="435">
-      <c r="D435" s="6"/>
+      <c r="D435" s="20"/>
     </row>
     <row r="436">
-      <c r="D436" s="6"/>
+      <c r="D436" s="20"/>
     </row>
     <row r="437">
-      <c r="D437" s="6"/>
+      <c r="D437" s="20"/>
     </row>
     <row r="438">
-      <c r="D438" s="6"/>
+      <c r="D438" s="20"/>
     </row>
     <row r="439">
-      <c r="D439" s="6"/>
+      <c r="D439" s="20"/>
     </row>
     <row r="440">
-      <c r="D440" s="6"/>
+      <c r="D440" s="20"/>
     </row>
     <row r="441">
-      <c r="D441" s="6"/>
+      <c r="D441" s="20"/>
     </row>
     <row r="442">
-      <c r="D442" s="6"/>
+      <c r="D442" s="20"/>
     </row>
     <row r="443">
-      <c r="D443" s="6"/>
+      <c r="D443" s="20"/>
     </row>
     <row r="444">
-      <c r="D444" s="6"/>
+      <c r="D444" s="20"/>
     </row>
     <row r="445">
-      <c r="D445" s="6"/>
+      <c r="D445" s="20"/>
     </row>
     <row r="446">
-      <c r="D446" s="6"/>
+      <c r="D446" s="20"/>
     </row>
     <row r="447">
-      <c r="D447" s="6"/>
+      <c r="D447" s="20"/>
     </row>
     <row r="448">
-      <c r="D448" s="6"/>
+      <c r="D448" s="20"/>
     </row>
     <row r="449">
-      <c r="D449" s="6"/>
+      <c r="D449" s="20"/>
     </row>
     <row r="450">
-      <c r="D450" s="6"/>
+      <c r="D450" s="20"/>
     </row>
     <row r="451">
-      <c r="D451" s="6"/>
+      <c r="D451" s="20"/>
     </row>
     <row r="452">
-      <c r="D452" s="6"/>
+      <c r="D452" s="20"/>
     </row>
     <row r="453">
-      <c r="D453" s="6"/>
+      <c r="D453" s="20"/>
     </row>
     <row r="454">
-      <c r="D454" s="6"/>
+      <c r="D454" s="20"/>
     </row>
     <row r="455">
-      <c r="D455" s="6"/>
+      <c r="D455" s="20"/>
     </row>
     <row r="456">
-      <c r="D456" s="6"/>
+      <c r="D456" s="20"/>
     </row>
     <row r="457">
-      <c r="D457" s="6"/>
+      <c r="D457" s="20"/>
     </row>
     <row r="458">
-      <c r="D458" s="6"/>
+      <c r="D458" s="20"/>
     </row>
     <row r="459">
-      <c r="D459" s="6"/>
+      <c r="D459" s="20"/>
     </row>
     <row r="460">
-      <c r="D460" s="6"/>
+      <c r="D460" s="20"/>
     </row>
     <row r="461">
-      <c r="D461" s="6"/>
+      <c r="D461" s="20"/>
     </row>
     <row r="462">
-      <c r="D462" s="6"/>
+      <c r="D462" s="20"/>
     </row>
     <row r="463">
-      <c r="D463" s="6"/>
+      <c r="D463" s="20"/>
     </row>
     <row r="464">
-      <c r="D464" s="6"/>
+      <c r="D464" s="20"/>
     </row>
     <row r="465">
-      <c r="D465" s="6"/>
+      <c r="D465" s="20"/>
     </row>
     <row r="466">
-      <c r="D466" s="6"/>
+      <c r="D466" s="20"/>
     </row>
     <row r="467">
-      <c r="D467" s="6"/>
+      <c r="D467" s="20"/>
     </row>
     <row r="468">
-      <c r="D468" s="6"/>
+      <c r="D468" s="20"/>
     </row>
     <row r="469">
-      <c r="D469" s="6"/>
+      <c r="D469" s="20"/>
     </row>
     <row r="470">
-      <c r="D470" s="6"/>
+      <c r="D470" s="20"/>
     </row>
     <row r="471">
-      <c r="D471" s="6"/>
+      <c r="D471" s="20"/>
     </row>
     <row r="472">
-      <c r="D472" s="6"/>
+      <c r="D472" s="20"/>
     </row>
     <row r="473">
-      <c r="D473" s="6"/>
+      <c r="D473" s="20"/>
     </row>
     <row r="474">
-      <c r="D474" s="6"/>
+      <c r="D474" s="20"/>
     </row>
     <row r="475">
-      <c r="D475" s="6"/>
+      <c r="D475" s="20"/>
     </row>
     <row r="476">
-      <c r="D476" s="6"/>
+      <c r="D476" s="20"/>
     </row>
     <row r="477">
-      <c r="D477" s="6"/>
+      <c r="D477" s="20"/>
     </row>
     <row r="478">
-      <c r="D478" s="6"/>
+      <c r="D478" s="20"/>
     </row>
     <row r="479">
-      <c r="D479" s="6"/>
+      <c r="D479" s="20"/>
     </row>
     <row r="480">
-      <c r="D480" s="6"/>
+      <c r="D480" s="20"/>
     </row>
     <row r="481">
-      <c r="D481" s="6"/>
+      <c r="D481" s="20"/>
     </row>
     <row r="482">
-      <c r="D482" s="6"/>
+      <c r="D482" s="20"/>
     </row>
     <row r="483">
-      <c r="D483" s="6"/>
+      <c r="D483" s="20"/>
     </row>
     <row r="484">
-      <c r="D484" s="6"/>
+      <c r="D484" s="20"/>
     </row>
     <row r="485">
-      <c r="D485" s="6"/>
+      <c r="D485" s="20"/>
     </row>
     <row r="486">
-      <c r="D486" s="6"/>
+      <c r="D486" s="20"/>
     </row>
     <row r="487">
-      <c r="D487" s="6"/>
+      <c r="D487" s="20"/>
     </row>
     <row r="488">
-      <c r="D488" s="6"/>
+      <c r="D488" s="20"/>
     </row>
     <row r="489">
-      <c r="D489" s="6"/>
+      <c r="D489" s="20"/>
     </row>
     <row r="490">
-      <c r="D490" s="6"/>
+      <c r="D490" s="20"/>
     </row>
     <row r="491">
-      <c r="D491" s="6"/>
+      <c r="D491" s="20"/>
     </row>
     <row r="492">
-      <c r="D492" s="6"/>
+      <c r="D492" s="20"/>
     </row>
     <row r="493">
-      <c r="D493" s="6"/>
+      <c r="D493" s="20"/>
     </row>
     <row r="494">
-      <c r="D494" s="6"/>
+      <c r="D494" s="20"/>
     </row>
     <row r="495">
-      <c r="D495" s="6"/>
+      <c r="D495" s="20"/>
     </row>
     <row r="496">
-      <c r="D496" s="6"/>
+      <c r="D496" s="20"/>
     </row>
     <row r="497">
-      <c r="D497" s="6"/>
+      <c r="D497" s="20"/>
     </row>
     <row r="498">
-      <c r="D498" s="6"/>
+      <c r="D498" s="20"/>
     </row>
     <row r="499">
-      <c r="D499" s="6"/>
+      <c r="D499" s="20"/>
     </row>
     <row r="500">
-      <c r="D500" s="6"/>
+      <c r="D500" s="20"/>
     </row>
     <row r="501">
-      <c r="D501" s="6"/>
+      <c r="D501" s="20"/>
     </row>
     <row r="502">
-      <c r="D502" s="6"/>
+      <c r="D502" s="20"/>
     </row>
     <row r="503">
-      <c r="D503" s="6"/>
+      <c r="D503" s="20"/>
     </row>
     <row r="504">
-      <c r="D504" s="6"/>
+      <c r="D504" s="20"/>
     </row>
     <row r="505">
-      <c r="D505" s="6"/>
+      <c r="D505" s="20"/>
     </row>
     <row r="506">
-      <c r="D506" s="6"/>
+      <c r="D506" s="20"/>
     </row>
     <row r="507">
-      <c r="D507" s="6"/>
+      <c r="D507" s="20"/>
     </row>
     <row r="508">
-      <c r="D508" s="6"/>
+      <c r="D508" s="20"/>
     </row>
     <row r="509">
-      <c r="D509" s="6"/>
+      <c r="D509" s="20"/>
     </row>
     <row r="510">
-      <c r="D510" s="6"/>
+      <c r="D510" s="20"/>
     </row>
     <row r="511">
-      <c r="D511" s="6"/>
+      <c r="D511" s="20"/>
     </row>
     <row r="512">
-      <c r="D512" s="6"/>
+      <c r="D512" s="20"/>
     </row>
     <row r="513">
-      <c r="D513" s="6"/>
+      <c r="D513" s="20"/>
     </row>
     <row r="514">
-      <c r="D514" s="6"/>
+      <c r="D514" s="20"/>
     </row>
     <row r="515">
-      <c r="D515" s="6"/>
+      <c r="D515" s="20"/>
     </row>
     <row r="516">
-      <c r="D516" s="6"/>
+      <c r="D516" s="20"/>
     </row>
     <row r="517">
-      <c r="D517" s="6"/>
+      <c r="D517" s="20"/>
     </row>
     <row r="518">
-      <c r="D518" s="6"/>
+      <c r="D518" s="20"/>
     </row>
     <row r="519">
-      <c r="D519" s="6"/>
+      <c r="D519" s="20"/>
     </row>
     <row r="520">
-      <c r="D520" s="6"/>
+      <c r="D520" s="20"/>
     </row>
     <row r="521">
-      <c r="D521" s="6"/>
+      <c r="D521" s="20"/>
     </row>
     <row r="522">
-      <c r="D522" s="6"/>
+      <c r="D522" s="20"/>
     </row>
     <row r="523">
-      <c r="D523" s="6"/>
+      <c r="D523" s="20"/>
     </row>
     <row r="524">
-      <c r="D524" s="6"/>
+      <c r="D524" s="20"/>
     </row>
     <row r="525">
-      <c r="D525" s="6"/>
+      <c r="D525" s="20"/>
     </row>
     <row r="526">
-      <c r="D526" s="6"/>
+      <c r="D526" s="20"/>
     </row>
     <row r="527">
-      <c r="D527" s="6"/>
+      <c r="D527" s="20"/>
     </row>
     <row r="528">
-      <c r="D528" s="6"/>
+      <c r="D528" s="20"/>
     </row>
     <row r="529">
-      <c r="D529" s="6"/>
+      <c r="D529" s="20"/>
     </row>
     <row r="530">
-      <c r="D530" s="6"/>
+      <c r="D530" s="20"/>
     </row>
     <row r="531">
-      <c r="D531" s="6"/>
+      <c r="D531" s="20"/>
     </row>
     <row r="532">
-      <c r="D532" s="6"/>
+      <c r="D532" s="20"/>
     </row>
     <row r="533">
-      <c r="D533" s="6"/>
+      <c r="D533" s="20"/>
     </row>
     <row r="534">
-      <c r="D534" s="6"/>
+      <c r="D534" s="20"/>
     </row>
     <row r="535">
-      <c r="D535" s="6"/>
+      <c r="D535" s="20"/>
     </row>
     <row r="536">
-      <c r="D536" s="6"/>
+      <c r="D536" s="20"/>
     </row>
     <row r="537">
-      <c r="D537" s="6"/>
+      <c r="D537" s="20"/>
     </row>
     <row r="538">
-      <c r="D538" s="6"/>
+      <c r="D538" s="20"/>
     </row>
     <row r="539">
-      <c r="D539" s="6"/>
+      <c r="D539" s="20"/>
     </row>
     <row r="540">
-      <c r="D540" s="6"/>
+      <c r="D540" s="20"/>
     </row>
     <row r="541">
-      <c r="D541" s="6"/>
+      <c r="D541" s="20"/>
     </row>
     <row r="542">
-      <c r="D542" s="6"/>
+      <c r="D542" s="20"/>
     </row>
     <row r="543">
-      <c r="D543" s="6"/>
+      <c r="D543" s="20"/>
     </row>
     <row r="544">
-      <c r="D544" s="6"/>
+      <c r="D544" s="20"/>
     </row>
     <row r="545">
-      <c r="D545" s="6"/>
+      <c r="D545" s="20"/>
     </row>
     <row r="546">
-      <c r="D546" s="6"/>
+      <c r="D546" s="20"/>
     </row>
     <row r="547">
-      <c r="D547" s="6"/>
+      <c r="D547" s="20"/>
     </row>
     <row r="548">
-      <c r="D548" s="6"/>
+      <c r="D548" s="20"/>
     </row>
     <row r="549">
-      <c r="D549" s="6"/>
+      <c r="D549" s="20"/>
     </row>
     <row r="550">
-      <c r="D550" s="6"/>
+      <c r="D550" s="20"/>
     </row>
     <row r="551">
-      <c r="D551" s="6"/>
+      <c r="D551" s="20"/>
     </row>
     <row r="552">
-      <c r="D552" s="6"/>
+      <c r="D552" s="20"/>
     </row>
     <row r="553">
-      <c r="D553" s="6"/>
+      <c r="D553" s="20"/>
     </row>
     <row r="554">
-      <c r="D554" s="6"/>
+      <c r="D554" s="20"/>
     </row>
     <row r="555">
-      <c r="D555" s="6"/>
+      <c r="D555" s="20"/>
     </row>
     <row r="556">
-      <c r="D556" s="6"/>
+      <c r="D556" s="20"/>
     </row>
     <row r="557">
-      <c r="D557" s="6"/>
+      <c r="D557" s="20"/>
     </row>
     <row r="558">
-      <c r="D558" s="6"/>
+      <c r="D558" s="20"/>
     </row>
     <row r="559">
-      <c r="D559" s="6"/>
+      <c r="D559" s="20"/>
     </row>
     <row r="560">
-      <c r="D560" s="6"/>
+      <c r="D560" s="20"/>
     </row>
     <row r="561">
-      <c r="D561" s="6"/>
+      <c r="D561" s="20"/>
     </row>
     <row r="562">
-      <c r="D562" s="6"/>
+      <c r="D562" s="20"/>
     </row>
     <row r="563">
-      <c r="D563" s="6"/>
+      <c r="D563" s="20"/>
     </row>
     <row r="564">
-      <c r="D564" s="6"/>
+      <c r="D564" s="20"/>
     </row>
     <row r="565">
-      <c r="D565" s="6"/>
+      <c r="D565" s="20"/>
     </row>
     <row r="566">
-      <c r="D566" s="6"/>
+      <c r="D566" s="20"/>
     </row>
     <row r="567">
-      <c r="D567" s="6"/>
+      <c r="D567" s="20"/>
     </row>
     <row r="568">
-      <c r="D568" s="6"/>
+      <c r="D568" s="20"/>
     </row>
     <row r="569">
-      <c r="D569" s="6"/>
+      <c r="D569" s="20"/>
     </row>
     <row r="570">
-      <c r="D570" s="6"/>
+      <c r="D570" s="20"/>
     </row>
     <row r="571">
-      <c r="D571" s="6"/>
+      <c r="D571" s="20"/>
     </row>
     <row r="572">
-      <c r="D572" s="6"/>
+      <c r="D572" s="20"/>
     </row>
     <row r="573">
-      <c r="D573" s="6"/>
+      <c r="D573" s="20"/>
     </row>
     <row r="574">
-      <c r="D574" s="6"/>
+      <c r="D574" s="20"/>
     </row>
     <row r="575">
-      <c r="D575" s="6"/>
+      <c r="D575" s="20"/>
     </row>
     <row r="576">
-      <c r="D576" s="6"/>
+      <c r="D576" s="20"/>
     </row>
     <row r="577">
-      <c r="D577" s="6"/>
+      <c r="D577" s="20"/>
     </row>
     <row r="578">
-      <c r="D578" s="6"/>
+      <c r="D578" s="20"/>
     </row>
     <row r="579">
-      <c r="D579" s="6"/>
+      <c r="D579" s="20"/>
     </row>
     <row r="580">
-      <c r="D580" s="6"/>
+      <c r="D580" s="20"/>
     </row>
     <row r="581">
-      <c r="D581" s="6"/>
+      <c r="D581" s="20"/>
     </row>
     <row r="582">
-      <c r="D582" s="6"/>
+      <c r="D582" s="20"/>
     </row>
     <row r="583">
-      <c r="D583" s="6"/>
+      <c r="D583" s="20"/>
     </row>
     <row r="584">
-      <c r="D584" s="6"/>
+      <c r="D584" s="20"/>
     </row>
     <row r="585">
-      <c r="D585" s="6"/>
+      <c r="D585" s="20"/>
     </row>
     <row r="586">
-      <c r="D586" s="6"/>
+      <c r="D586" s="20"/>
     </row>
     <row r="587">
-      <c r="D587" s="6"/>
+      <c r="D587" s="20"/>
     </row>
     <row r="588">
-      <c r="D588" s="6"/>
+      <c r="D588" s="20"/>
     </row>
     <row r="589">
-      <c r="D589" s="6"/>
+      <c r="D589" s="20"/>
     </row>
     <row r="590">
-      <c r="D590" s="6"/>
+      <c r="D590" s="20"/>
     </row>
     <row r="591">
-      <c r="D591" s="6"/>
+      <c r="D591" s="20"/>
     </row>
     <row r="592">
-      <c r="D592" s="6"/>
+      <c r="D592" s="20"/>
     </row>
     <row r="593">
-      <c r="D593" s="6"/>
+      <c r="D593" s="20"/>
     </row>
     <row r="594">
-      <c r="D594" s="6"/>
+      <c r="D594" s="20"/>
     </row>
     <row r="595">
-      <c r="D595" s="6"/>
+      <c r="D595" s="20"/>
     </row>
     <row r="596">
-      <c r="D596" s="6"/>
+      <c r="D596" s="20"/>
     </row>
     <row r="597">
-      <c r="D597" s="6"/>
+      <c r="D597" s="20"/>
     </row>
     <row r="598">
-      <c r="D598" s="6"/>
+      <c r="D598" s="20"/>
     </row>
     <row r="599">
-      <c r="D599" s="6"/>
+      <c r="D599" s="20"/>
     </row>
     <row r="600">
-      <c r="D600" s="6"/>
+      <c r="D600" s="20"/>
     </row>
     <row r="601">
-      <c r="D601" s="6"/>
+      <c r="D601" s="20"/>
     </row>
     <row r="602">
-      <c r="D602" s="6"/>
+      <c r="D602" s="20"/>
     </row>
     <row r="603">
-      <c r="D603" s="6"/>
+      <c r="D603" s="20"/>
     </row>
     <row r="604">
-      <c r="D604" s="6"/>
+      <c r="D604" s="20"/>
     </row>
     <row r="605">
-      <c r="D605" s="6"/>
+      <c r="D605" s="20"/>
     </row>
     <row r="606">
-      <c r="D606" s="6"/>
+      <c r="D606" s="20"/>
     </row>
     <row r="607">
-      <c r="D607" s="6"/>
+      <c r="D607" s="20"/>
     </row>
     <row r="608">
-      <c r="D608" s="6"/>
+      <c r="D608" s="20"/>
     </row>
     <row r="609">
-      <c r="D609" s="6"/>
+      <c r="D609" s="20"/>
     </row>
     <row r="610">
-      <c r="D610" s="6"/>
+      <c r="D610" s="20"/>
     </row>
     <row r="611">
-      <c r="D611" s="6"/>
+      <c r="D611" s="20"/>
     </row>
     <row r="612">
-      <c r="D612" s="6"/>
+      <c r="D612" s="20"/>
     </row>
     <row r="613">
-      <c r="D613" s="6"/>
+      <c r="D613" s="20"/>
     </row>
     <row r="614">
-      <c r="D614" s="6"/>
+      <c r="D614" s="20"/>
     </row>
     <row r="615">
-      <c r="D615" s="6"/>
+      <c r="D615" s="20"/>
     </row>
     <row r="616">
-      <c r="D616" s="6"/>
+      <c r="D616" s="20"/>
     </row>
     <row r="617">
-      <c r="D617" s="6"/>
+      <c r="D617" s="20"/>
     </row>
     <row r="618">
-      <c r="D618" s="6"/>
+      <c r="D618" s="20"/>
     </row>
     <row r="619">
-      <c r="D619" s="6"/>
+      <c r="D619" s="20"/>
     </row>
     <row r="620">
-      <c r="D620" s="6"/>
+      <c r="D620" s="20"/>
     </row>
     <row r="621">
-      <c r="D621" s="6"/>
+      <c r="D621" s="20"/>
     </row>
     <row r="622">
-      <c r="D622" s="6"/>
+      <c r="D622" s="20"/>
     </row>
     <row r="623">
-      <c r="D623" s="6"/>
+      <c r="D623" s="20"/>
     </row>
     <row r="624">
-      <c r="D624" s="6"/>
+      <c r="D624" s="20"/>
     </row>
     <row r="625">
-      <c r="D625" s="6"/>
+      <c r="D625" s="20"/>
     </row>
     <row r="626">
-      <c r="D626" s="6"/>
+      <c r="D626" s="20"/>
     </row>
     <row r="627">
-      <c r="D627" s="6"/>
+      <c r="D627" s="20"/>
     </row>
     <row r="628">
-      <c r="D628" s="6"/>
+      <c r="D628" s="20"/>
     </row>
     <row r="629">
-      <c r="D629" s="6"/>
+      <c r="D629" s="20"/>
     </row>
     <row r="630">
-      <c r="D630" s="6"/>
+      <c r="D630" s="20"/>
     </row>
     <row r="631">
-      <c r="D631" s="6"/>
+      <c r="D631" s="20"/>
     </row>
     <row r="632">
-      <c r="D632" s="6"/>
+      <c r="D632" s="20"/>
     </row>
     <row r="633">
-      <c r="D633" s="6"/>
+      <c r="D633" s="20"/>
     </row>
     <row r="634">
-      <c r="D634" s="6"/>
+      <c r="D634" s="20"/>
     </row>
     <row r="635">
-      <c r="D635" s="6"/>
+      <c r="D635" s="20"/>
     </row>
     <row r="636">
-      <c r="D636" s="6"/>
+      <c r="D636" s="20"/>
     </row>
     <row r="637">
-      <c r="D637" s="6"/>
+      <c r="D637" s="20"/>
     </row>
     <row r="638">
-      <c r="D638" s="6"/>
+      <c r="D638" s="20"/>
     </row>
     <row r="639">
-      <c r="D639" s="6"/>
+      <c r="D639" s="20"/>
     </row>
     <row r="640">
-      <c r="D640" s="6"/>
+      <c r="D640" s="20"/>
     </row>
     <row r="641">
-      <c r="D641" s="6"/>
+      <c r="D641" s="20"/>
     </row>
     <row r="642">
-      <c r="D642" s="6"/>
+      <c r="D642" s="20"/>
     </row>
     <row r="643">
-      <c r="D643" s="6"/>
+      <c r="D643" s="20"/>
     </row>
     <row r="644">
-      <c r="D644" s="6"/>
+      <c r="D644" s="20"/>
     </row>
     <row r="645">
-      <c r="D645" s="6"/>
+      <c r="D645" s="20"/>
     </row>
     <row r="646">
-      <c r="D646" s="6"/>
+      <c r="D646" s="20"/>
     </row>
     <row r="647">
-      <c r="D647" s="6"/>
+      <c r="D647" s="20"/>
     </row>
     <row r="648">
-      <c r="D648" s="6"/>
+      <c r="D648" s="20"/>
     </row>
     <row r="649">
-      <c r="D649" s="6"/>
+      <c r="D649" s="20"/>
     </row>
     <row r="650">
-      <c r="D650" s="6"/>
+      <c r="D650" s="20"/>
     </row>
     <row r="651">
-      <c r="D651" s="6"/>
+      <c r="D651" s="20"/>
     </row>
     <row r="652">
-      <c r="D652" s="6"/>
+      <c r="D652" s="20"/>
     </row>
     <row r="653">
-      <c r="D653" s="6"/>
+      <c r="D653" s="20"/>
     </row>
     <row r="654">
-      <c r="D654" s="6"/>
+      <c r="D654" s="20"/>
     </row>
     <row r="655">
-      <c r="D655" s="6"/>
+      <c r="D655" s="20"/>
     </row>
     <row r="656">
-      <c r="D656" s="6"/>
+      <c r="D656" s="20"/>
     </row>
     <row r="657">
-      <c r="D657" s="6"/>
+      <c r="D657" s="20"/>
     </row>
     <row r="658">
-      <c r="D658" s="6"/>
+      <c r="D658" s="20"/>
     </row>
     <row r="659">
-      <c r="D659" s="6"/>
+      <c r="D659" s="20"/>
     </row>
     <row r="660">
-      <c r="D660" s="6"/>
+      <c r="D660" s="20"/>
     </row>
     <row r="661">
-      <c r="D661" s="6"/>
+      <c r="D661" s="20"/>
     </row>
     <row r="662">
-      <c r="D662" s="6"/>
+      <c r="D662" s="20"/>
     </row>
     <row r="663">
-      <c r="D663" s="6"/>
+      <c r="D663" s="20"/>
     </row>
     <row r="664">
-      <c r="D664" s="6"/>
+      <c r="D664" s="20"/>
     </row>
     <row r="665">
-      <c r="D665" s="6"/>
+      <c r="D665" s="20"/>
     </row>
     <row r="666">
-      <c r="D666" s="6"/>
+      <c r="D666" s="20"/>
     </row>
     <row r="667">
-      <c r="D667" s="6"/>
+      <c r="D667" s="20"/>
     </row>
     <row r="668">
-      <c r="D668" s="6"/>
+      <c r="D668" s="20"/>
     </row>
     <row r="669">
-      <c r="D669" s="6"/>
+      <c r="D669" s="20"/>
     </row>
     <row r="670">
-      <c r="D670" s="6"/>
+      <c r="D670" s="20"/>
     </row>
     <row r="671">
-      <c r="D671" s="6"/>
+      <c r="D671" s="20"/>
     </row>
     <row r="672">
-      <c r="D672" s="6"/>
+      <c r="D672" s="20"/>
     </row>
     <row r="673">
-      <c r="D673" s="6"/>
+      <c r="D673" s="20"/>
     </row>
     <row r="674">
-      <c r="D674" s="6"/>
+      <c r="D674" s="20"/>
     </row>
     <row r="675">
-      <c r="D675" s="6"/>
+      <c r="D675" s="20"/>
     </row>
     <row r="676">
-      <c r="D676" s="6"/>
+      <c r="D676" s="20"/>
     </row>
     <row r="677">
-      <c r="D677" s="6"/>
+      <c r="D677" s="20"/>
     </row>
     <row r="678">
-      <c r="D678" s="6"/>
+      <c r="D678" s="20"/>
     </row>
     <row r="679">
-      <c r="D679" s="6"/>
+      <c r="D679" s="20"/>
     </row>
     <row r="680">
-      <c r="D680" s="6"/>
+      <c r="D680" s="20"/>
     </row>
     <row r="681">
-      <c r="D681" s="6"/>
+      <c r="D681" s="20"/>
     </row>
     <row r="682">
-      <c r="D682" s="6"/>
+      <c r="D682" s="20"/>
     </row>
     <row r="683">
-      <c r="D683" s="6"/>
+      <c r="D683" s="20"/>
     </row>
     <row r="684">
-      <c r="D684" s="6"/>
+      <c r="D684" s="20"/>
     </row>
     <row r="685">
-      <c r="D685" s="6"/>
+      <c r="D685" s="20"/>
     </row>
     <row r="686">
-      <c r="D686" s="6"/>
+      <c r="D686" s="20"/>
     </row>
     <row r="687">
-      <c r="D687" s="6"/>
+      <c r="D687" s="20"/>
     </row>
     <row r="688">
-      <c r="D688" s="6"/>
+      <c r="D688" s="20"/>
     </row>
     <row r="689">
-      <c r="D689" s="6"/>
+      <c r="D689" s="20"/>
     </row>
     <row r="690">
-      <c r="D690" s="6"/>
+      <c r="D690" s="20"/>
     </row>
     <row r="691">
-      <c r="D691" s="6"/>
+      <c r="D691" s="20"/>
     </row>
     <row r="692">
-      <c r="D692" s="6"/>
+      <c r="D692" s="20"/>
     </row>
     <row r="693">
-      <c r="D693" s="6"/>
+      <c r="D693" s="20"/>
     </row>
     <row r="694">
-      <c r="D694" s="6"/>
+      <c r="D694" s="20"/>
     </row>
     <row r="695">
-      <c r="D695" s="6"/>
+      <c r="D695" s="20"/>
     </row>
     <row r="696">
-      <c r="D696" s="6"/>
+      <c r="D696" s="20"/>
     </row>
     <row r="697">
-      <c r="D697" s="6"/>
+      <c r="D697" s="20"/>
     </row>
     <row r="698">
-      <c r="D698" s="6"/>
+      <c r="D698" s="20"/>
     </row>
     <row r="699">
-      <c r="D699" s="6"/>
+      <c r="D699" s="20"/>
     </row>
     <row r="700">
-      <c r="D700" s="6"/>
+      <c r="D700" s="20"/>
     </row>
     <row r="701">
-      <c r="D701" s="6"/>
+      <c r="D701" s="20"/>
     </row>
     <row r="702">
-      <c r="D702" s="6"/>
+      <c r="D702" s="20"/>
     </row>
     <row r="703">
-      <c r="D703" s="6"/>
+      <c r="D703" s="20"/>
     </row>
     <row r="704">
-      <c r="D704" s="6"/>
+      <c r="D704" s="20"/>
     </row>
     <row r="705">
-      <c r="D705" s="6"/>
+      <c r="D705" s="20"/>
     </row>
     <row r="706">
-      <c r="D706" s="6"/>
+      <c r="D706" s="20"/>
     </row>
     <row r="707">
-      <c r="D707" s="6"/>
+      <c r="D707" s="20"/>
     </row>
     <row r="708">
-      <c r="D708" s="6"/>
+      <c r="D708" s="20"/>
     </row>
     <row r="709">
-      <c r="D709" s="6"/>
+      <c r="D709" s="20"/>
     </row>
     <row r="710">
-      <c r="D710" s="6"/>
+      <c r="D710" s="20"/>
     </row>
     <row r="711">
-      <c r="D711" s="6"/>
+      <c r="D711" s="20"/>
     </row>
     <row r="712">
-      <c r="D712" s="6"/>
+      <c r="D712" s="20"/>
     </row>
     <row r="713">
-      <c r="D713" s="6"/>
+      <c r="D713" s="20"/>
     </row>
     <row r="714">
-      <c r="D714" s="6"/>
+      <c r="D714" s="20"/>
     </row>
     <row r="715">
-      <c r="D715" s="6"/>
+      <c r="D715" s="20"/>
     </row>
     <row r="716">
-      <c r="D716" s="6"/>
+      <c r="D716" s="20"/>
     </row>
     <row r="717">
-      <c r="D717" s="6"/>
+      <c r="D717" s="20"/>
     </row>
     <row r="718">
-      <c r="D718" s="6"/>
+      <c r="D718" s="20"/>
     </row>
     <row r="719">
-      <c r="D719" s="6"/>
+      <c r="D719" s="20"/>
     </row>
     <row r="720">
-      <c r="D720" s="6"/>
+      <c r="D720" s="20"/>
     </row>
     <row r="721">
-      <c r="D721" s="6"/>
+      <c r="D721" s="20"/>
     </row>
     <row r="722">
-      <c r="D722" s="6"/>
+      <c r="D722" s="20"/>
     </row>
     <row r="723">
-      <c r="D723" s="6"/>
+      <c r="D723" s="20"/>
     </row>
     <row r="724">
-      <c r="D724" s="6"/>
+      <c r="D724" s="20"/>
     </row>
     <row r="725">
-      <c r="D725" s="6"/>
+      <c r="D725" s="20"/>
     </row>
     <row r="726">
-      <c r="D726" s="6"/>
+      <c r="D726" s="20"/>
     </row>
     <row r="727">
-      <c r="D727" s="6"/>
+      <c r="D727" s="20"/>
     </row>
     <row r="728">
-      <c r="D728" s="6"/>
+      <c r="D728" s="20"/>
     </row>
     <row r="729">
-      <c r="D729" s="6"/>
+      <c r="D729" s="20"/>
     </row>
     <row r="730">
-      <c r="D730" s="6"/>
+      <c r="D730" s="20"/>
     </row>
     <row r="731">
-      <c r="D731" s="6"/>
+      <c r="D731" s="20"/>
     </row>
     <row r="732">
-      <c r="D732" s="6"/>
+      <c r="D732" s="20"/>
     </row>
     <row r="733">
-      <c r="D733" s="6"/>
+      <c r="D733" s="20"/>
     </row>
     <row r="734">
-      <c r="D734" s="6"/>
+      <c r="D734" s="20"/>
     </row>
     <row r="735">
-      <c r="D735" s="6"/>
+      <c r="D735" s="20"/>
     </row>
     <row r="736">
-      <c r="D736" s="6"/>
+      <c r="D736" s="20"/>
     </row>
     <row r="737">
-      <c r="D737" s="6"/>
+      <c r="D737" s="20"/>
     </row>
     <row r="738">
-      <c r="D738" s="6"/>
+      <c r="D738" s="20"/>
     </row>
     <row r="739">
-      <c r="D739" s="6"/>
+      <c r="D739" s="20"/>
     </row>
     <row r="740">
-      <c r="D740" s="6"/>
+      <c r="D740" s="20"/>
     </row>
     <row r="741">
-      <c r="D741" s="6"/>
+      <c r="D741" s="20"/>
     </row>
     <row r="742">
-      <c r="D742" s="6"/>
+      <c r="D742" s="20"/>
     </row>
     <row r="743">
-      <c r="D743" s="6"/>
+      <c r="D743" s="20"/>
     </row>
     <row r="744">
-      <c r="D744" s="6"/>
+      <c r="D744" s="20"/>
     </row>
     <row r="745">
-      <c r="D745" s="6"/>
+      <c r="D745" s="20"/>
     </row>
     <row r="746">
-      <c r="D746" s="6"/>
+      <c r="D746" s="20"/>
     </row>
     <row r="747">
-      <c r="D747" s="6"/>
+      <c r="D747" s="20"/>
     </row>
     <row r="748">
-      <c r="D748" s="6"/>
+      <c r="D748" s="20"/>
     </row>
     <row r="749">
-      <c r="D749" s="6"/>
+      <c r="D749" s="20"/>
     </row>
     <row r="750">
-      <c r="D750" s="6"/>
+      <c r="D750" s="20"/>
     </row>
     <row r="751">
-      <c r="D751" s="6"/>
+      <c r="D751" s="20"/>
     </row>
     <row r="752">
-      <c r="D752" s="6"/>
+      <c r="D752" s="20"/>
     </row>
     <row r="753">
-      <c r="D753" s="6"/>
+      <c r="D753" s="20"/>
     </row>
     <row r="754">
-      <c r="D754" s="6"/>
+      <c r="D754" s="20"/>
     </row>
     <row r="755">
-      <c r="D755" s="6"/>
+      <c r="D755" s="20"/>
     </row>
     <row r="756">
-      <c r="D756" s="6"/>
+      <c r="D756" s="20"/>
     </row>
     <row r="757">
-      <c r="D757" s="6"/>
+      <c r="D757" s="20"/>
     </row>
     <row r="758">
-      <c r="D758" s="6"/>
+      <c r="D758" s="20"/>
     </row>
     <row r="759">
-      <c r="D759" s="6"/>
+      <c r="D759" s="20"/>
     </row>
     <row r="760">
-      <c r="D760" s="6"/>
+      <c r="D760" s="20"/>
     </row>
     <row r="761">
-      <c r="D761" s="6"/>
+      <c r="D761" s="20"/>
     </row>
     <row r="762">
-      <c r="D762" s="6"/>
+      <c r="D762" s="20"/>
     </row>
     <row r="763">
-      <c r="D763" s="6"/>
+      <c r="D763" s="20"/>
     </row>
     <row r="764">
-      <c r="D764" s="6"/>
+      <c r="D764" s="20"/>
     </row>
     <row r="765">
-      <c r="D765" s="6"/>
+      <c r="D765" s="20"/>
     </row>
     <row r="766">
-      <c r="D766" s="6"/>
+      <c r="D766" s="20"/>
     </row>
     <row r="767">
-      <c r="D767" s="6"/>
+      <c r="D767" s="20"/>
     </row>
     <row r="768">
-      <c r="D768" s="6"/>
+      <c r="D768" s="20"/>
     </row>
     <row r="769">
-      <c r="D769" s="6"/>
+      <c r="D769" s="20"/>
     </row>
     <row r="770">
-      <c r="D770" s="6"/>
+      <c r="D770" s="20"/>
     </row>
     <row r="771">
-      <c r="D771" s="6"/>
+      <c r="D771" s="20"/>
     </row>
     <row r="772">
-      <c r="D772" s="6"/>
+      <c r="D772" s="20"/>
     </row>
     <row r="773">
-      <c r="D773" s="6"/>
+      <c r="D773" s="20"/>
     </row>
     <row r="774">
-      <c r="D774" s="6"/>
+      <c r="D774" s="20"/>
     </row>
     <row r="775">
-      <c r="D775" s="6"/>
+      <c r="D775" s="20"/>
     </row>
     <row r="776">
-      <c r="D776" s="6"/>
+      <c r="D776" s="20"/>
     </row>
     <row r="777">
-      <c r="D777" s="6"/>
+      <c r="D777" s="20"/>
     </row>
     <row r="778">
-      <c r="D778" s="6"/>
+      <c r="D778" s="20"/>
     </row>
     <row r="779">
-      <c r="D779" s="6"/>
+      <c r="D779" s="20"/>
     </row>
     <row r="780">
-      <c r="D780" s="6"/>
+      <c r="D780" s="20"/>
     </row>
     <row r="781">
-      <c r="D781" s="6"/>
+      <c r="D781" s="20"/>
     </row>
     <row r="782">
-      <c r="D782" s="6"/>
+      <c r="D782" s="20"/>
     </row>
     <row r="783">
-      <c r="D783" s="6"/>
+      <c r="D783" s="20"/>
     </row>
     <row r="784">
-      <c r="D784" s="6"/>
+      <c r="D784" s="20"/>
     </row>
     <row r="785">
-      <c r="D785" s="6"/>
+      <c r="D785" s="20"/>
     </row>
     <row r="786">
-      <c r="D786" s="6"/>
+      <c r="D786" s="20"/>
     </row>
     <row r="787">
-      <c r="D787" s="6"/>
+      <c r="D787" s="20"/>
     </row>
     <row r="788">
-      <c r="D788" s="6"/>
+      <c r="D788" s="20"/>
     </row>
     <row r="789">
-      <c r="D789" s="6"/>
+      <c r="D789" s="20"/>
     </row>
     <row r="790">
-      <c r="D790" s="6"/>
+      <c r="D790" s="20"/>
     </row>
     <row r="791">
-      <c r="D791" s="6"/>
+      <c r="D791" s="20"/>
     </row>
     <row r="792">
-      <c r="D792" s="6"/>
+      <c r="D792" s="20"/>
     </row>
     <row r="793">
-      <c r="D793" s="6"/>
+      <c r="D793" s="20"/>
     </row>
     <row r="794">
-      <c r="D794" s="6"/>
+      <c r="D794" s="20"/>
     </row>
     <row r="795">
-      <c r="D795" s="6"/>
+      <c r="D795" s="20"/>
     </row>
     <row r="796">
-      <c r="D796" s="6"/>
+      <c r="D796" s="20"/>
     </row>
     <row r="797">
-      <c r="D797" s="6"/>
+      <c r="D797" s="20"/>
     </row>
     <row r="798">
-      <c r="D798" s="6"/>
+      <c r="D798" s="20"/>
     </row>
     <row r="799">
-      <c r="D799" s="6"/>
+      <c r="D799" s="20"/>
     </row>
     <row r="800">
-      <c r="D800" s="6"/>
+      <c r="D800" s="20"/>
     </row>
     <row r="801">
-      <c r="D801" s="6"/>
+      <c r="D801" s="20"/>
     </row>
     <row r="802">
-      <c r="D802" s="6"/>
+      <c r="D802" s="20"/>
     </row>
     <row r="803">
-      <c r="D803" s="6"/>
+      <c r="D803" s="20"/>
     </row>
     <row r="804">
-      <c r="D804" s="6"/>
+      <c r="D804" s="20"/>
     </row>
     <row r="805">
-      <c r="D805" s="6"/>
+      <c r="D805" s="20"/>
     </row>
     <row r="806">
-      <c r="D806" s="6"/>
+      <c r="D806" s="20"/>
     </row>
     <row r="807">
-      <c r="D807" s="6"/>
+      <c r="D807" s="20"/>
     </row>
     <row r="808">
-      <c r="D808" s="6"/>
+      <c r="D808" s="20"/>
     </row>
     <row r="809">
-      <c r="D809" s="6"/>
+      <c r="D809" s="20"/>
     </row>
     <row r="810">
-      <c r="D810" s="6"/>
+      <c r="D810" s="20"/>
     </row>
     <row r="811">
-      <c r="D811" s="6"/>
+      <c r="D811" s="20"/>
     </row>
     <row r="812">
-      <c r="D812" s="6"/>
+      <c r="D812" s="20"/>
     </row>
     <row r="813">
-      <c r="D813" s="6"/>
+      <c r="D813" s="20"/>
     </row>
     <row r="814">
-      <c r="D814" s="6"/>
+      <c r="D814" s="20"/>
     </row>
     <row r="815">
-      <c r="D815" s="6"/>
+      <c r="D815" s="20"/>
     </row>
     <row r="816">
-      <c r="D816" s="6"/>
+      <c r="D816" s="20"/>
     </row>
     <row r="817">
-      <c r="D817" s="6"/>
+      <c r="D817" s="20"/>
     </row>
     <row r="818">
-      <c r="D818" s="6"/>
+      <c r="D818" s="20"/>
     </row>
     <row r="819">
-      <c r="D819" s="6"/>
+      <c r="D819" s="20"/>
     </row>
     <row r="820">
-      <c r="D820" s="6"/>
+      <c r="D820" s="20"/>
     </row>
     <row r="821">
-      <c r="D821" s="6"/>
+      <c r="D821" s="20"/>
     </row>
     <row r="822">
-      <c r="D822" s="6"/>
+      <c r="D822" s="20"/>
     </row>
     <row r="823">
-      <c r="D823" s="6"/>
+      <c r="D823" s="20"/>
     </row>
     <row r="824">
-      <c r="D824" s="6"/>
+      <c r="D824" s="20"/>
     </row>
     <row r="825">
-      <c r="D825" s="6"/>
+      <c r="D825" s="20"/>
     </row>
     <row r="826">
-      <c r="D826" s="6"/>
+      <c r="D826" s="20"/>
     </row>
     <row r="827">
-      <c r="D827" s="6"/>
+      <c r="D827" s="20"/>
     </row>
     <row r="828">
-      <c r="D828" s="6"/>
+      <c r="D828" s="20"/>
     </row>
     <row r="829">
-      <c r="D829" s="6"/>
+      <c r="D829" s="20"/>
     </row>
     <row r="830">
-      <c r="D830" s="6"/>
+      <c r="D830" s="20"/>
     </row>
     <row r="831">
-      <c r="D831" s="6"/>
+      <c r="D831" s="20"/>
     </row>
     <row r="832">
-      <c r="D832" s="6"/>
+      <c r="D832" s="20"/>
     </row>
     <row r="833">
-      <c r="D833" s="6"/>
+      <c r="D833" s="20"/>
     </row>
     <row r="834">
-      <c r="D834" s="6"/>
+      <c r="D834" s="20"/>
     </row>
     <row r="835">
-      <c r="D835" s="6"/>
+      <c r="D835" s="20"/>
     </row>
     <row r="836">
-      <c r="D836" s="6"/>
+      <c r="D836" s="20"/>
     </row>
     <row r="837">
-      <c r="D837" s="6"/>
+      <c r="D837" s="20"/>
     </row>
     <row r="838">
-      <c r="D838" s="6"/>
+      <c r="D838" s="20"/>
     </row>
     <row r="839">
-      <c r="D839" s="6"/>
+      <c r="D839" s="20"/>
     </row>
     <row r="840">
-      <c r="D840" s="6"/>
+      <c r="D840" s="20"/>
     </row>
     <row r="841">
-      <c r="D841" s="6"/>
+      <c r="D841" s="20"/>
     </row>
     <row r="842">
-      <c r="D842" s="6"/>
+      <c r="D842" s="20"/>
     </row>
     <row r="843">
-      <c r="D843" s="6"/>
+      <c r="D843" s="20"/>
     </row>
     <row r="844">
-      <c r="D844" s="6"/>
+      <c r="D844" s="20"/>
     </row>
     <row r="845">
-      <c r="D845" s="6"/>
+      <c r="D845" s="20"/>
     </row>
     <row r="846">
-      <c r="D846" s="6"/>
+      <c r="D846" s="20"/>
     </row>
     <row r="847">
-      <c r="D847" s="6"/>
+      <c r="D847" s="20"/>
     </row>
     <row r="848">
-      <c r="D848" s="6"/>
+      <c r="D848" s="20"/>
     </row>
     <row r="849">
-      <c r="D849" s="6"/>
+      <c r="D849" s="20"/>
     </row>
     <row r="850">
-      <c r="D850" s="6"/>
+      <c r="D850" s="20"/>
     </row>
     <row r="851">
-      <c r="D851" s="6"/>
+      <c r="D851" s="20"/>
     </row>
     <row r="852">
-      <c r="D852" s="6"/>
+      <c r="D852" s="20"/>
     </row>
     <row r="853">
-      <c r="D853" s="6"/>
+      <c r="D853" s="20"/>
     </row>
     <row r="854">
-      <c r="D854" s="6"/>
+      <c r="D854" s="20"/>
     </row>
     <row r="855">
-      <c r="D855" s="6"/>
+      <c r="D855" s="20"/>
     </row>
     <row r="856">
-      <c r="D856" s="6"/>
+      <c r="D856" s="20"/>
     </row>
     <row r="857">
-      <c r="D857" s="6"/>
+      <c r="D857" s="20"/>
     </row>
     <row r="858">
-      <c r="D858" s="6"/>
+      <c r="D858" s="20"/>
     </row>
     <row r="859">
-      <c r="D859" s="6"/>
+      <c r="D859" s="20"/>
     </row>
     <row r="860">
-      <c r="D860" s="6"/>
+      <c r="D860" s="20"/>
     </row>
     <row r="861">
-      <c r="D861" s="6"/>
+      <c r="D861" s="20"/>
     </row>
     <row r="862">
-      <c r="D862" s="6"/>
+      <c r="D862" s="20"/>
     </row>
     <row r="863">
-      <c r="D863" s="6"/>
+      <c r="D863" s="20"/>
     </row>
     <row r="864">
-      <c r="D864" s="6"/>
+      <c r="D864" s="20"/>
     </row>
     <row r="865">
-      <c r="D865" s="6"/>
+      <c r="D865" s="20"/>
     </row>
     <row r="866">
-      <c r="D866" s="6"/>
+      <c r="D866" s="20"/>
     </row>
     <row r="867">
-      <c r="D867" s="6"/>
+      <c r="D867" s="20"/>
     </row>
     <row r="868">
-      <c r="D868" s="6"/>
+      <c r="D868" s="20"/>
     </row>
     <row r="869">
-      <c r="D869" s="6"/>
+      <c r="D869" s="20"/>
     </row>
     <row r="870">
-      <c r="D870" s="6"/>
+      <c r="D870" s="20"/>
     </row>
     <row r="871">
-      <c r="D871" s="6"/>
+      <c r="D871" s="20"/>
     </row>
     <row r="872">
-      <c r="D872" s="6"/>
+      <c r="D872" s="20"/>
     </row>
     <row r="873">
-      <c r="D873" s="6"/>
+      <c r="D873" s="20"/>
     </row>
     <row r="874">
-      <c r="D874" s="6"/>
+      <c r="D874" s="20"/>
     </row>
     <row r="875">
-      <c r="D875" s="6"/>
+      <c r="D875" s="20"/>
     </row>
     <row r="876">
-      <c r="D876" s="6"/>
+      <c r="D876" s="20"/>
     </row>
     <row r="877">
-      <c r="D877" s="6"/>
+      <c r="D877" s="20"/>
     </row>
     <row r="878">
-      <c r="D878" s="6"/>
+      <c r="D878" s="20"/>
     </row>
     <row r="879">
-      <c r="D879" s="6"/>
+      <c r="D879" s="20"/>
     </row>
     <row r="880">
-      <c r="D880" s="6"/>
+      <c r="D880" s="20"/>
     </row>
     <row r="881">
-      <c r="D881" s="6"/>
+      <c r="D881" s="20"/>
     </row>
     <row r="882">
-      <c r="D882" s="6"/>
+      <c r="D882" s="20"/>
     </row>
     <row r="883">
-      <c r="D883" s="6"/>
+      <c r="D883" s="20"/>
     </row>
     <row r="884">
-      <c r="D884" s="6"/>
+      <c r="D884" s="20"/>
     </row>
     <row r="885">
-      <c r="D885" s="6"/>
+      <c r="D885" s="20"/>
     </row>
     <row r="886">
-      <c r="D886" s="6"/>
+      <c r="D886" s="20"/>
     </row>
     <row r="887">
-      <c r="D887" s="6"/>
+      <c r="D887" s="20"/>
     </row>
     <row r="888">
-      <c r="D888" s="6"/>
+      <c r="D888" s="20"/>
     </row>
     <row r="889">
-      <c r="D889" s="6"/>
+      <c r="D889" s="20"/>
     </row>
     <row r="890">
-      <c r="D890" s="6"/>
+      <c r="D890" s="20"/>
     </row>
     <row r="891">
-      <c r="D891" s="6"/>
+      <c r="D891" s="20"/>
     </row>
     <row r="892">
-      <c r="D892" s="6"/>
+      <c r="D892" s="20"/>
     </row>
     <row r="893">
-      <c r="D893" s="6"/>
+      <c r="D893" s="20"/>
     </row>
     <row r="894">
-      <c r="D894" s="6"/>
+      <c r="D894" s="20"/>
     </row>
     <row r="895">
-      <c r="D895" s="6"/>
+      <c r="D895" s="20"/>
     </row>
     <row r="896">
-      <c r="D896" s="6"/>
+      <c r="D896" s="20"/>
     </row>
     <row r="897">
-      <c r="D897" s="6"/>
+      <c r="D897" s="20"/>
     </row>
     <row r="898">
-      <c r="D898" s="6"/>
+      <c r="D898" s="20"/>
     </row>
     <row r="899">
-      <c r="D899" s="6"/>
+      <c r="D899" s="20"/>
     </row>
     <row r="900">
-      <c r="D900" s="6"/>
+      <c r="D900" s="20"/>
     </row>
     <row r="901">
-      <c r="D901" s="6"/>
+      <c r="D901" s="20"/>
     </row>
     <row r="902">
-      <c r="D902" s="6"/>
+      <c r="D902" s="20"/>
     </row>
     <row r="903">
-      <c r="D903" s="6"/>
+      <c r="D903" s="20"/>
     </row>
     <row r="904">
-      <c r="D904" s="6"/>
+      <c r="D904" s="20"/>
     </row>
     <row r="905">
-      <c r="D905" s="6"/>
+      <c r="D905" s="20"/>
     </row>
     <row r="906">
-      <c r="D906" s="6"/>
+      <c r="D906" s="20"/>
     </row>
     <row r="907">
-      <c r="D907" s="6"/>
+      <c r="D907" s="20"/>
     </row>
     <row r="908">
-      <c r="D908" s="6"/>
+      <c r="D908" s="20"/>
     </row>
     <row r="909">
-      <c r="D909" s="6"/>
+      <c r="D909" s="20"/>
     </row>
     <row r="910">
-      <c r="D910" s="6"/>
+      <c r="D910" s="20"/>
     </row>
     <row r="911">
-      <c r="D911" s="6"/>
+      <c r="D911" s="20"/>
     </row>
     <row r="912">
-      <c r="D912" s="6"/>
+      <c r="D912" s="20"/>
     </row>
     <row r="913">
-      <c r="D913" s="6"/>
+      <c r="D913" s="20"/>
     </row>
     <row r="914">
-      <c r="D914" s="6"/>
+      <c r="D914" s="20"/>
     </row>
     <row r="915">
-      <c r="D915" s="6"/>
+      <c r="D915" s="20"/>
     </row>
     <row r="916">
-      <c r="D916" s="6"/>
+      <c r="D916" s="20"/>
     </row>
     <row r="917">
-      <c r="D917" s="6"/>
+      <c r="D917" s="20"/>
     </row>
     <row r="918">
-      <c r="D918" s="6"/>
+      <c r="D918" s="20"/>
     </row>
     <row r="919">
-      <c r="D919" s="6"/>
+      <c r="D919" s="20"/>
     </row>
     <row r="920">
-      <c r="D920" s="6"/>
+      <c r="D920" s="20"/>
     </row>
     <row r="921">
-      <c r="D921" s="6"/>
+      <c r="D921" s="20"/>
     </row>
     <row r="922">
-      <c r="D922" s="6"/>
+      <c r="D922" s="20"/>
     </row>
     <row r="923">
-      <c r="D923" s="6"/>
+      <c r="D923" s="20"/>
     </row>
     <row r="924">
-      <c r="D924" s="6"/>
+      <c r="D924" s="20"/>
     </row>
     <row r="925">
-      <c r="D925" s="6"/>
+      <c r="D925" s="20"/>
     </row>
     <row r="926">
-      <c r="D926" s="6"/>
+      <c r="D926" s="20"/>
     </row>
     <row r="927">
-      <c r="D927" s="6"/>
+      <c r="D927" s="20"/>
     </row>
     <row r="928">
-      <c r="D928" s="6"/>
+      <c r="D928" s="20"/>
     </row>
     <row r="929">
-      <c r="D929" s="6"/>
+      <c r="D929" s="20"/>
     </row>
     <row r="930">
-      <c r="D930" s="6"/>
+      <c r="D930" s="20"/>
     </row>
     <row r="931">
-      <c r="D931" s="6"/>
+      <c r="D931" s="20"/>
     </row>
     <row r="932">
-      <c r="D932" s="6"/>
+      <c r="D932" s="20"/>
     </row>
     <row r="933">
-      <c r="D933" s="6"/>
+      <c r="D933" s="20"/>
     </row>
     <row r="934">
-      <c r="D934" s="6"/>
+      <c r="D934" s="20"/>
     </row>
     <row r="935">
-      <c r="D935" s="6"/>
+      <c r="D935" s="20"/>
     </row>
     <row r="936">
-      <c r="D936" s="6"/>
+      <c r="D936" s="20"/>
     </row>
     <row r="937">
-      <c r="D937" s="6"/>
+      <c r="D937" s="20"/>
     </row>
     <row r="938">
-      <c r="D938" s="6"/>
+      <c r="D938" s="20"/>
     </row>
     <row r="939">
-      <c r="D939" s="6"/>
+      <c r="D939" s="20"/>
     </row>
     <row r="940">
-      <c r="D940" s="6"/>
+      <c r="D940" s="20"/>
     </row>
     <row r="941">
-      <c r="D941" s="6"/>
+      <c r="D941" s="20"/>
     </row>
     <row r="942">
-      <c r="D942" s="6"/>
+      <c r="D942" s="20"/>
     </row>
     <row r="943">
-      <c r="D943" s="6"/>
+      <c r="D943" s="20"/>
     </row>
     <row r="944">
-      <c r="D944" s="6"/>
+      <c r="D944" s="20"/>
     </row>
     <row r="945">
-      <c r="D945" s="6"/>
+      <c r="D945" s="20"/>
     </row>
     <row r="946">
-      <c r="D946" s="6"/>
+      <c r="D946" s="20"/>
     </row>
     <row r="947">
-      <c r="D947" s="6"/>
+      <c r="D947" s="20"/>
     </row>
     <row r="948">
-      <c r="D948" s="6"/>
+      <c r="D948" s="20"/>
     </row>
     <row r="949">
-      <c r="D949" s="6"/>
+      <c r="D949" s="20"/>
     </row>
     <row r="950">
-      <c r="D950" s="6"/>
+      <c r="D950" s="20"/>
     </row>
     <row r="951">
-      <c r="D951" s="6"/>
+      <c r="D951" s="20"/>
     </row>
     <row r="952">
-      <c r="D952" s="6"/>
+      <c r="D952" s="20"/>
     </row>
     <row r="953">
-      <c r="D953" s="6"/>
+      <c r="D953" s="20"/>
     </row>
     <row r="954">
-      <c r="D954" s="6"/>
+      <c r="D954" s="20"/>
     </row>
     <row r="955">
-      <c r="D955" s="6"/>
+      <c r="D955" s="20"/>
     </row>
     <row r="956">
-      <c r="D956" s="6"/>
+      <c r="D956" s="20"/>
     </row>
     <row r="957">
-      <c r="D957" s="6"/>
+      <c r="D957" s="20"/>
     </row>
     <row r="958">
-      <c r="D958" s="6"/>
+      <c r="D958" s="20"/>
     </row>
     <row r="959">
-      <c r="D959" s="6"/>
+      <c r="D959" s="20"/>
     </row>
     <row r="960">
-      <c r="D960" s="6"/>
+      <c r="D960" s="20"/>
     </row>
     <row r="961">
-      <c r="D961" s="6"/>
+      <c r="D961" s="20"/>
     </row>
     <row r="962">
-      <c r="D962" s="6"/>
+      <c r="D962" s="20"/>
     </row>
     <row r="963">
-      <c r="D963" s="6"/>
+      <c r="D963" s="20"/>
     </row>
     <row r="964">
-      <c r="D964" s="6"/>
+      <c r="D964" s="20"/>
     </row>
     <row r="965">
-      <c r="D965" s="6"/>
+      <c r="D965" s="20"/>
     </row>
     <row r="966">
-      <c r="D966" s="6"/>
+      <c r="D966" s="20"/>
     </row>
     <row r="967">
-      <c r="D967" s="6"/>
+      <c r="D967" s="20"/>
     </row>
     <row r="968">
-      <c r="D968" s="6"/>
+      <c r="D968" s="20"/>
     </row>
     <row r="969">
-      <c r="D969" s="6"/>
+      <c r="D969" s="20"/>
     </row>
     <row r="970">
-      <c r="D970" s="6"/>
+      <c r="D970" s="20"/>
     </row>
     <row r="971">
-      <c r="D971" s="6"/>
+      <c r="D971" s="20"/>
     </row>
     <row r="972">
-      <c r="D972" s="6"/>
+      <c r="D972" s="20"/>
     </row>
     <row r="973">
-      <c r="D973" s="6"/>
+      <c r="D973" s="20"/>
     </row>
     <row r="974">
-      <c r="D974" s="6"/>
+      <c r="D974" s="20"/>
     </row>
     <row r="975">
-      <c r="D975" s="6"/>
+      <c r="D975" s="20"/>
     </row>
     <row r="976">
-      <c r="D976" s="6"/>
+      <c r="D976" s="20"/>
     </row>
     <row r="977">
-      <c r="D977" s="6"/>
+      <c r="D977" s="20"/>
     </row>
     <row r="978">
-      <c r="D978" s="6"/>
+      <c r="D978" s="20"/>
     </row>
     <row r="979">
-      <c r="D979" s="6"/>
+      <c r="D979" s="20"/>
     </row>
     <row r="980">
-      <c r="D980" s="6"/>
+      <c r="D980" s="20"/>
     </row>
     <row r="981">
-      <c r="D981" s="6"/>
+      <c r="D981" s="20"/>
     </row>
     <row r="982">
-      <c r="D982" s="6"/>
+      <c r="D982" s="20"/>
     </row>
     <row r="983">
-      <c r="D983" s="6"/>
+      <c r="D983" s="20"/>
     </row>
     <row r="984">
-      <c r="D984" s="6"/>
+      <c r="D984" s="20"/>
     </row>
     <row r="985">
-      <c r="D985" s="6"/>
+      <c r="D985" s="20"/>
     </row>
     <row r="986">
-      <c r="D986" s="6"/>
+      <c r="D986" s="20"/>
     </row>
     <row r="987">
-      <c r="D987" s="6"/>
+      <c r="D987" s="20"/>
     </row>
     <row r="988">
-      <c r="D988" s="6"/>
+      <c r="D988" s="20"/>
     </row>
     <row r="989">
-      <c r="D989" s="6"/>
+      <c r="D989" s="20"/>
     </row>
     <row r="990">
-      <c r="D990" s="6"/>
+      <c r="D990" s="20"/>
     </row>
     <row r="991">
-      <c r="D991" s="6"/>
+      <c r="D991" s="20"/>
     </row>
     <row r="992">
-      <c r="D992" s="6"/>
+      <c r="D992" s="20"/>
     </row>
     <row r="993">
-      <c r="D993" s="6"/>
+      <c r="D993" s="20"/>
     </row>
     <row r="994">
-      <c r="D994" s="6"/>
+      <c r="D994" s="20"/>
     </row>
     <row r="995">
-      <c r="D995" s="6"/>
+      <c r="D995" s="20"/>
     </row>
     <row r="996">
-      <c r="D996" s="6"/>
+      <c r="D996" s="20"/>
     </row>
     <row r="997">
-      <c r="D997" s="6"/>
+      <c r="D997" s="20"/>
     </row>
     <row r="998">
-      <c r="D998" s="6"/>
-    </row>
-    <row r="999">
-      <c r="D999" s="6"/>
-    </row>
-    <row r="1000">
-      <c r="D1000" s="6"/>
+      <c r="D998" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
